--- a/Jogos_da_Semana_FlashScore_2025-04-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-21.xlsx
@@ -653,25 +653,25 @@
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L2" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N2" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="O2" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="P2" t="n">
         <v>1.3</v>
@@ -680,10 +680,10 @@
         <v>3.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T2" t="n">
         <v>13</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
         <v>1.11</v>
@@ -784,16 +784,16 @@
         <v>6.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N3" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
         <v>1.53</v>
@@ -811,7 +811,7 @@
         <v>6.5</v>
       </c>
       <c r="U3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V3" t="n">
         <v>10</v>
@@ -841,19 +841,19 @@
         <v>451</v>
       </c>
       <c r="AE3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF3" t="n">
         <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>34</v>
       </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ3" t="n">
         <v>41</v>
@@ -900,22 +900,22 @@
         <v>2.45</v>
       </c>
       <c r="J4" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K4" t="n">
         <v>8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M4" t="n">
         <v>3.2</v>
       </c>
       <c r="N4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="P4" t="n">
         <v>1.44</v>
@@ -924,10 +924,10 @@
         <v>2.63</v>
       </c>
       <c r="R4" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S4" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T4" t="n">
         <v>9</v>
@@ -936,7 +936,7 @@
         <v>15</v>
       </c>
       <c r="V4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W4" t="n">
         <v>34</v>
@@ -948,7 +948,7 @@
         <v>34</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA4" t="n">
         <v>6</v>
@@ -969,7 +969,7 @@
         <v>11</v>
       </c>
       <c r="AG4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
         <v>23</v>
@@ -1022,22 +1022,22 @@
         <v>2.3</v>
       </c>
       <c r="J5" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K5" t="n">
         <v>8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="P5" t="n">
         <v>1.5</v>
@@ -1141,16 +1141,16 @@
         <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="J6" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K6" t="n">
         <v>10</v>
       </c>
       <c r="L6" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M6" t="n">
         <v>3.5</v>
@@ -1257,31 +1257,31 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="J7" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K7" t="n">
         <v>10</v>
       </c>
       <c r="L7" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M7" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O7" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="P7" t="n">
         <v>1.4</v>
@@ -1290,31 +1290,31 @@
         <v>2.75</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T7" t="n">
         <v>9.5</v>
       </c>
       <c r="U7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W7" t="n">
         <v>29</v>
       </c>
       <c r="X7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
         <v>29</v>
       </c>
       <c r="Z7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA7" t="n">
         <v>6.5</v>
@@ -1329,19 +1329,19 @@
         <v>201</v>
       </c>
       <c r="AE7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
         <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
         <v>29</v>
@@ -1379,31 +1379,31 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K8" t="n">
         <v>8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M8" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N8" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P8" t="n">
         <v>1.53</v>
@@ -1418,52 +1418,52 @@
         <v>1.67</v>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U8" t="n">
+        <v>8</v>
+      </c>
+      <c r="V8" t="n">
         <v>9</v>
       </c>
-      <c r="V8" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W8" t="n">
+        <v>15</v>
+      </c>
+      <c r="X8" t="n">
         <v>19</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB8" t="n">
         <v>21</v>
       </c>
-      <c r="Y8" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>19</v>
-      </c>
       <c r="AC8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="n">
         <v>501</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
         <v>41</v>
       </c>
       <c r="AI8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ8" t="n">
         <v>41</v>
@@ -1501,31 +1501,31 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
+        <v>9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K9" t="n">
         <v>8</v>
       </c>
-      <c r="J9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K9" t="n">
-        <v>9</v>
-      </c>
       <c r="L9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P9" t="n">
         <v>1.44</v>
@@ -1534,10 +1534,10 @@
         <v>2.63</v>
       </c>
       <c r="R9" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T9" t="n">
         <v>5.5</v>
@@ -1549,19 +1549,19 @@
         <v>9</v>
       </c>
       <c r="W9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X9" t="n">
         <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z9" t="n">
         <v>8</v>
       </c>
       <c r="AA9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB9" t="n">
         <v>23</v>
@@ -1576,13 +1576,13 @@
         <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI9" t="n">
         <v>67</v>
@@ -1623,31 +1623,31 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J10" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K10" t="n">
         <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M10" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N10" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P10" t="n">
         <v>1.53</v>
@@ -1656,16 +1656,16 @@
         <v>2.38</v>
       </c>
       <c r="R10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T10" t="n">
         <v>5.5</v>
       </c>
       <c r="U10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V10" t="n">
         <v>9</v>
@@ -1686,7 +1686,7 @@
         <v>6.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
         <v>81</v>
@@ -1701,7 +1701,7 @@
         <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH10" t="n">
         <v>51</v>
@@ -1754,13 +1754,13 @@
         <v>4.1</v>
       </c>
       <c r="J11" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="K11" t="n">
         <v>4.75</v>
       </c>
       <c r="L11" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
@@ -1778,13 +1778,13 @@
         <v>2.03</v>
       </c>
       <c r="R11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="S11" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="U11" t="n">
         <v>8</v>
@@ -1817,7 +1817,7 @@
         <v>101</v>
       </c>
       <c r="AE11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF11" t="n">
         <v>19</v>
@@ -1876,13 +1876,13 @@
         <v>4.33</v>
       </c>
       <c r="J12" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="K12" t="n">
         <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="M12" t="n">
         <v>2.1</v>
@@ -1989,43 +1989,43 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="J13" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P13" t="n">
         <v>1.44</v>
       </c>
-      <c r="M13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.5</v>
-      </c>
       <c r="Q13" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T13" t="n">
         <v>6</v>
@@ -2034,22 +2034,22 @@
         <v>7.5</v>
       </c>
       <c r="V13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W13" t="n">
+        <v>13</v>
+      </c>
+      <c r="X13" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z13" t="n">
         <v>9</v>
       </c>
-      <c r="W13" t="n">
-        <v>15</v>
-      </c>
-      <c r="X13" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AA13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB13" t="n">
         <v>19</v>
@@ -2058,16 +2058,16 @@
         <v>67</v>
       </c>
       <c r="AD13" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AE13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF13" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH13" t="n">
         <v>51</v>
@@ -2364,22 +2364,22 @@
         <v>3.1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K16" t="n">
         <v>7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M16" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N16" t="n">
         <v>2.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P16" t="n">
         <v>1.57</v>
@@ -2599,46 +2599,46 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
         <v>3.6</v>
       </c>
       <c r="J18" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K18" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="M18" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="N18" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="O18" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="P18" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.77</v>
+        <v>2.65</v>
       </c>
       <c r="R18" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S18" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="T18" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="U18" t="n">
         <v>9.5</v>
@@ -2647,46 +2647,46 @@
         <v>8.5</v>
       </c>
       <c r="W18" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="X18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z18" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="AA18" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC18" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AD18" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AE18" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF18" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH18" t="n">
         <v>50</v>
       </c>
       <c r="AI18" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ18" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
@@ -2730,22 +2730,22 @@
         <v>1.36</v>
       </c>
       <c r="J19" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K19" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L19" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M19" t="n">
         <v>3.75</v>
       </c>
       <c r="N19" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="O19" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="P19" t="n">
         <v>1.36</v>
@@ -2784,7 +2784,7 @@
         <v>10</v>
       </c>
       <c r="AB19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC19" t="n">
         <v>81</v>
@@ -2808,7 +2808,7 @@
         <v>12</v>
       </c>
       <c r="AJ19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="H20" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="I20" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="J20" t="n">
         <v>1.04</v>
@@ -2858,73 +2858,73 @@
         <v>13</v>
       </c>
       <c r="L20" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M20" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N20" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O20" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P20" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R20" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T20" t="n">
         <v>7</v>
       </c>
       <c r="U20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V20" t="n">
         <v>8.5</v>
       </c>
       <c r="W20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X20" t="n">
         <v>12</v>
       </c>
       <c r="Y20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z20" t="n">
         <v>12</v>
       </c>
       <c r="AA20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD20" t="n">
         <v>351</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="n">
         <v>51</v>
@@ -2965,13 +2965,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J21" t="n">
         <v>1.1</v>
@@ -2992,10 +2992,10 @@
         <v>1.48</v>
       </c>
       <c r="P21" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R21" t="n">
         <v>2.2</v>
@@ -3004,19 +3004,19 @@
         <v>1.62</v>
       </c>
       <c r="T21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V21" t="n">
         <v>11</v>
       </c>
       <c r="W21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y21" t="n">
         <v>41</v>
@@ -3040,16 +3040,16 @@
         <v>7</v>
       </c>
       <c r="AF21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG21" t="n">
         <v>12</v>
       </c>
       <c r="AH21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ21" t="n">
         <v>41</v>
@@ -3087,19 +3087,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
         <v>2.88</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K22" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L22" t="n">
         <v>1.62</v>
@@ -3129,13 +3129,13 @@
         <v>5</v>
       </c>
       <c r="U22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V22" t="n">
         <v>11</v>
       </c>
       <c r="W22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X22" t="n">
         <v>23</v>
@@ -3150,7 +3150,7 @@
         <v>6</v>
       </c>
       <c r="AB22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC22" t="n">
         <v>101</v>
@@ -3162,10 +3162,10 @@
         <v>8</v>
       </c>
       <c r="AF22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG22" t="n">
         <v>17</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>15</v>
       </c>
       <c r="AH22" t="n">
         <v>41</v>
@@ -3209,13 +3209,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="H23" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J23" t="n">
         <v>1.12</v>
@@ -3224,79 +3224,79 @@
         <v>5.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M23" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="N23" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="O23" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P23" t="n">
         <v>1.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="R23" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="S23" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="T23" t="n">
-        <v>4.85</v>
+        <v>4.65</v>
       </c>
       <c r="U23" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="V23" t="n">
         <v>9</v>
       </c>
       <c r="W23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X23" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y23" t="n">
         <v>45</v>
       </c>
       <c r="Z23" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AA23" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC23" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AD23" t="n">
         <v>101</v>
       </c>
       <c r="AE23" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AG23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH23" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AI23" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
@@ -3462,34 +3462,34 @@
         <v>4.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L25" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N25" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="O25" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P25" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R25" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S25" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T25" t="n">
         <v>6</v>
@@ -3516,13 +3516,13 @@
         <v>6</v>
       </c>
       <c r="AB25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC25" t="n">
         <v>67</v>
       </c>
       <c r="AD25" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -3578,22 +3578,22 @@
         <v>1.95</v>
       </c>
       <c r="H26" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L26" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N26" t="n">
         <v>2.2</v>
@@ -3602,16 +3602,16 @@
         <v>1.67</v>
       </c>
       <c r="P26" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S26" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T26" t="n">
         <v>6.5</v>
@@ -3629,13 +3629,13 @@
         <v>17</v>
       </c>
       <c r="Y26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB26" t="n">
         <v>17</v>
@@ -3644,7 +3644,7 @@
         <v>51</v>
       </c>
       <c r="AD26" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE26" t="n">
         <v>10</v>
@@ -3706,10 +3706,10 @@
         <v>11</v>
       </c>
       <c r="J27" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L27" t="n">
         <v>1.22</v>
@@ -3817,19 +3817,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H28" t="n">
         <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
         <v>1.07</v>
       </c>
       <c r="K28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L28" t="n">
         <v>1.36</v>
@@ -3862,7 +3862,7 @@
         <v>11</v>
       </c>
       <c r="V28" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W28" t="n">
         <v>23</v>
@@ -3892,7 +3892,7 @@
         <v>8.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG28" t="n">
         <v>11</v>
@@ -3901,7 +3901,7 @@
         <v>29</v>
       </c>
       <c r="AI28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ28" t="n">
         <v>34</v>
@@ -4061,13 +4061,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="H30" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="J30" t="n">
         <v>1.04</v>
@@ -4082,10 +4082,10 @@
         <v>4.33</v>
       </c>
       <c r="N30" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O30" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P30" t="n">
         <v>1.33</v>
@@ -4100,28 +4100,28 @@
         <v>2</v>
       </c>
       <c r="T30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W30" t="n">
         <v>51</v>
       </c>
       <c r="X30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y30" t="n">
         <v>41</v>
       </c>
       <c r="Z30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA30" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB30" t="n">
         <v>15</v>
@@ -4142,13 +4142,13 @@
         <v>8.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
@@ -4198,16 +4198,16 @@
         <v>10</v>
       </c>
       <c r="L31" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N31" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O31" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P31" t="n">
         <v>1.4</v>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H32" t="n">
         <v>3.3</v>
       </c>
       <c r="I32" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J32" t="n">
         <v>1.08</v>
@@ -4344,10 +4344,10 @@
         <v>1.8</v>
       </c>
       <c r="T32" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V32" t="n">
         <v>10</v>
@@ -4380,13 +4380,13 @@
         <v>7.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI32" t="n">
         <v>23</v>
@@ -4448,7 +4448,7 @@
         <v>4</v>
       </c>
       <c r="N33" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O33" t="n">
         <v>2</v>
@@ -4460,13 +4460,13 @@
         <v>3</v>
       </c>
       <c r="R33" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S33" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U33" t="n">
         <v>17</v>
@@ -4490,7 +4490,7 @@
         <v>6.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC33" t="n">
         <v>41</v>
@@ -4549,13 +4549,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="H34" t="n">
         <v>3.5</v>
       </c>
       <c r="I34" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J34" t="n">
         <v>1.07</v>
@@ -4582,10 +4582,10 @@
         <v>2.63</v>
       </c>
       <c r="R34" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S34" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T34" t="n">
         <v>6.5</v>
@@ -4621,10 +4621,10 @@
         <v>351</v>
       </c>
       <c r="AE34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG34" t="n">
         <v>15</v>
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="H35" t="n">
         <v>3.5</v>
@@ -4793,19 +4793,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H36" t="n">
         <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K36" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L36" t="n">
         <v>1.44</v>
@@ -4820,10 +4820,10 @@
         <v>1.57</v>
       </c>
       <c r="P36" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R36" t="n">
         <v>2.1</v>
@@ -4832,7 +4832,7 @@
         <v>1.67</v>
       </c>
       <c r="T36" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U36" t="n">
         <v>8</v>
@@ -4850,7 +4850,7 @@
         <v>34</v>
       </c>
       <c r="Z36" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA36" t="n">
         <v>6.5</v>
@@ -4880,7 +4880,7 @@
         <v>41</v>
       </c>
       <c r="AJ36" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
@@ -4915,13 +4915,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H37" t="n">
         <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J37" t="n">
         <v>1.02</v>
@@ -5037,13 +5037,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H38" t="n">
         <v>3.2</v>
       </c>
       <c r="I38" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="J38" t="n">
         <v>1.06</v>
@@ -5076,7 +5076,7 @@
         <v>2.05</v>
       </c>
       <c r="T38" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U38" t="n">
         <v>13</v>
@@ -5085,7 +5085,7 @@
         <v>10</v>
       </c>
       <c r="W38" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X38" t="n">
         <v>21</v>
@@ -5109,7 +5109,7 @@
         <v>201</v>
       </c>
       <c r="AE38" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF38" t="n">
         <v>13</v>
@@ -5159,19 +5159,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="H39" t="n">
         <v>3.1</v>
       </c>
       <c r="I39" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J39" t="n">
         <v>1.08</v>
       </c>
       <c r="K39" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L39" t="n">
         <v>1.4</v>
@@ -5234,13 +5234,13 @@
         <v>8</v>
       </c>
       <c r="AF39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI39" t="n">
         <v>26</v>
@@ -5281,13 +5281,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H40" t="n">
         <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J40" t="n">
         <v>1.05</v>
@@ -5314,10 +5314,10 @@
         <v>2.75</v>
       </c>
       <c r="R40" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S40" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T40" t="n">
         <v>11</v>
@@ -5329,7 +5329,7 @@
         <v>13</v>
       </c>
       <c r="W40" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X40" t="n">
         <v>34</v>
@@ -5350,19 +5350,19 @@
         <v>51</v>
       </c>
       <c r="AD40" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE40" t="n">
         <v>7</v>
       </c>
       <c r="AF40" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG40" t="n">
         <v>8.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI40" t="n">
         <v>15</v>
@@ -5403,13 +5403,13 @@
         </is>
       </c>
       <c r="G41" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H41" t="n">
         <v>3.5</v>
       </c>
-      <c r="H41" t="n">
-        <v>3.4</v>
-      </c>
       <c r="I41" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="J41" t="n">
         <v>1.05</v>
@@ -5424,10 +5424,10 @@
         <v>3.75</v>
       </c>
       <c r="N41" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O41" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P41" t="n">
         <v>1.4</v>
@@ -5436,28 +5436,28 @@
         <v>2.75</v>
       </c>
       <c r="R41" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S41" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W41" t="n">
         <v>41</v>
       </c>
       <c r="X41" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z41" t="n">
         <v>11</v>
@@ -5475,19 +5475,19 @@
         <v>201</v>
       </c>
       <c r="AE41" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG41" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ41" t="n">
         <v>26</v>
@@ -5525,13 +5525,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H42" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I42" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J42" t="n">
         <v>1.04</v>
@@ -5552,16 +5552,16 @@
         <v>2</v>
       </c>
       <c r="P42" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T42" t="n">
         <v>8.5</v>
@@ -5573,7 +5573,7 @@
         <v>9</v>
       </c>
       <c r="W42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X42" t="n">
         <v>17</v>
@@ -5591,16 +5591,16 @@
         <v>15</v>
       </c>
       <c r="AC42" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD42" t="n">
         <v>201</v>
       </c>
       <c r="AE42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG42" t="n">
         <v>11</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H43" t="n">
         <v>3.3</v>
       </c>
       <c r="I43" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J43" t="n">
         <v>1.07</v>
@@ -5671,7 +5671,7 @@
         <v>2.05</v>
       </c>
       <c r="O43" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P43" t="n">
         <v>1.44</v>
@@ -5686,7 +5686,7 @@
         <v>1.95</v>
       </c>
       <c r="T43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U43" t="n">
         <v>13</v>
@@ -5769,13 +5769,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>3.6</v>
       </c>
       <c r="I44" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J44" t="n">
         <v>1.04</v>
@@ -5790,7 +5790,7 @@
         <v>4.33</v>
       </c>
       <c r="N44" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O44" t="n">
         <v>2.1</v>
@@ -5811,19 +5811,19 @@
         <v>9</v>
       </c>
       <c r="U44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V44" t="n">
         <v>8.5</v>
       </c>
       <c r="W44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X44" t="n">
         <v>15</v>
       </c>
       <c r="Y44" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z44" t="n">
         <v>13</v>
@@ -5844,7 +5844,7 @@
         <v>13</v>
       </c>
       <c r="AF44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG44" t="n">
         <v>12</v>
@@ -5891,7 +5891,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H45" t="n">
         <v>3.9</v>
@@ -5900,10 +5900,10 @@
         <v>6.25</v>
       </c>
       <c r="J45" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L45" t="n">
         <v>1.3</v>
@@ -5954,7 +5954,7 @@
         <v>7.5</v>
       </c>
       <c r="AB45" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC45" t="n">
         <v>67</v>
@@ -5963,7 +5963,7 @@
         <v>451</v>
       </c>
       <c r="AE45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF45" t="n">
         <v>29</v>
@@ -6013,19 +6013,19 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H46" t="n">
         <v>3.6</v>
       </c>
       <c r="I46" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J46" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K46" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L46" t="n">
         <v>1.33</v>
@@ -6034,10 +6034,10 @@
         <v>3.25</v>
       </c>
       <c r="N46" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="O46" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="P46" t="n">
         <v>1.44</v>
@@ -6052,16 +6052,16 @@
         <v>1.75</v>
       </c>
       <c r="T46" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U46" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V46" t="n">
         <v>8.5</v>
       </c>
       <c r="W46" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X46" t="n">
         <v>15</v>
@@ -6073,13 +6073,13 @@
         <v>8.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC46" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD46" t="n">
         <v>401</v>
@@ -6091,7 +6091,7 @@
         <v>23</v>
       </c>
       <c r="AG46" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH46" t="n">
         <v>51</v>
@@ -6135,7 +6135,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H47" t="n">
         <v>3.3</v>
@@ -6257,7 +6257,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="H48" t="n">
         <v>3.2</v>
@@ -6266,10 +6266,10 @@
         <v>3.6</v>
       </c>
       <c r="J48" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K48" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L48" t="n">
         <v>1.4</v>
@@ -6382,10 +6382,10 @@
         <v>6</v>
       </c>
       <c r="H49" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I49" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="J49" t="n">
         <v>1.04</v>
@@ -6501,7 +6501,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H50" t="n">
         <v>3.2</v>
@@ -6623,7 +6623,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H51" t="n">
         <v>3.3</v>
@@ -6745,19 +6745,19 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H52" t="n">
         <v>3.25</v>
       </c>
       <c r="I52" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="J52" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K52" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L52" t="n">
         <v>1.33</v>
@@ -6766,10 +6766,10 @@
         <v>3.25</v>
       </c>
       <c r="N52" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O52" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P52" t="n">
         <v>1.44</v>
@@ -6888,10 +6888,10 @@
         <v>3.5</v>
       </c>
       <c r="N53" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O53" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P53" t="n">
         <v>1.4</v>
@@ -7111,13 +7111,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H55" t="n">
         <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J55" t="n">
         <v>1.1</v>
@@ -7150,10 +7150,10 @@
         <v>1.67</v>
       </c>
       <c r="T55" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U55" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V55" t="n">
         <v>13</v>
@@ -7168,7 +7168,7 @@
         <v>41</v>
       </c>
       <c r="Z55" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA55" t="n">
         <v>6</v>
@@ -7186,7 +7186,7 @@
         <v>6</v>
       </c>
       <c r="AF55" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG55" t="n">
         <v>10</v>
@@ -7355,13 +7355,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H57" t="n">
         <v>3.4</v>
       </c>
       <c r="I57" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J57" t="n">
         <v>1.06</v>
@@ -7376,10 +7376,10 @@
         <v>3.5</v>
       </c>
       <c r="N57" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O57" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P57" t="n">
         <v>1.4</v>
@@ -7388,10 +7388,10 @@
         <v>2.75</v>
       </c>
       <c r="R57" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S57" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T57" t="n">
         <v>10</v>
@@ -7403,10 +7403,10 @@
         <v>12</v>
       </c>
       <c r="W57" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X57" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y57" t="n">
         <v>34</v>
@@ -7424,10 +7424,10 @@
         <v>51</v>
       </c>
       <c r="AD57" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE57" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF57" t="n">
         <v>10</v>
@@ -7477,13 +7477,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="H58" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I58" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J58" t="n">
         <v>1.03</v>
@@ -7516,7 +7516,7 @@
         <v>2</v>
       </c>
       <c r="T58" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U58" t="n">
         <v>8</v>
@@ -7531,13 +7531,13 @@
         <v>12</v>
       </c>
       <c r="Y58" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z58" t="n">
         <v>15</v>
       </c>
       <c r="AA58" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB58" t="n">
         <v>15</v>
@@ -7549,7 +7549,7 @@
         <v>201</v>
       </c>
       <c r="AE58" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF58" t="n">
         <v>34</v>
@@ -7599,19 +7599,19 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="H59" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I59" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J59" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L59" t="n">
         <v>1.33</v>
@@ -7620,10 +7620,10 @@
         <v>3.25</v>
       </c>
       <c r="N59" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O59" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P59" t="n">
         <v>1.44</v>
@@ -7638,16 +7638,16 @@
         <v>1.83</v>
       </c>
       <c r="T59" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U59" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V59" t="n">
         <v>9</v>
       </c>
       <c r="W59" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X59" t="n">
         <v>17</v>
@@ -7656,13 +7656,13 @@
         <v>29</v>
       </c>
       <c r="Z59" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA59" t="n">
         <v>6.5</v>
       </c>
       <c r="AB59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC59" t="n">
         <v>51</v>
@@ -7671,13 +7671,13 @@
         <v>301</v>
       </c>
       <c r="AE59" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF59" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG59" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH59" t="n">
         <v>41</v>
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="H60" t="n">
         <v>3.7</v>
@@ -7736,16 +7736,16 @@
         <v>15</v>
       </c>
       <c r="L60" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M60" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N60" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O60" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P60" t="n">
         <v>1.33</v>
@@ -7843,31 +7843,31 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H61" t="n">
         <v>4</v>
       </c>
       <c r="I61" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J61" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K61" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L61" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M61" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N61" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="O61" t="n">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="P61" t="n">
         <v>1.4</v>
@@ -7879,7 +7879,7 @@
         <v>2</v>
       </c>
       <c r="S61" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T61" t="n">
         <v>13</v>
@@ -7909,7 +7909,7 @@
         <v>19</v>
       </c>
       <c r="AC61" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD61" t="n">
         <v>351</v>
@@ -7965,19 +7965,19 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H62" t="n">
         <v>3.3</v>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J62" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K62" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L62" t="n">
         <v>1.33</v>
@@ -7986,10 +7986,10 @@
         <v>3.25</v>
       </c>
       <c r="N62" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O62" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P62" t="n">
         <v>1.44</v>
@@ -8010,7 +8010,7 @@
         <v>11</v>
       </c>
       <c r="V62" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W62" t="n">
         <v>23</v>
@@ -8037,7 +8037,7 @@
         <v>301</v>
       </c>
       <c r="AE62" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF62" t="n">
         <v>15</v>
@@ -8049,7 +8049,7 @@
         <v>29</v>
       </c>
       <c r="AI62" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ62" t="n">
         <v>34</v>
@@ -8087,13 +8087,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H63" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I63" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J63" t="n">
         <v>1.07</v>
@@ -8120,22 +8120,22 @@
         <v>2.63</v>
       </c>
       <c r="R63" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S63" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T63" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U63" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V63" t="n">
         <v>8.5</v>
       </c>
       <c r="W63" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X63" t="n">
         <v>15</v>
@@ -8147,10 +8147,10 @@
         <v>8.5</v>
       </c>
       <c r="AA63" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB63" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC63" t="n">
         <v>67</v>
@@ -8162,16 +8162,16 @@
         <v>12</v>
       </c>
       <c r="AF63" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG63" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH63" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI63" t="n">
         <v>51</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>41</v>
       </c>
       <c r="AJ63" t="n">
         <v>51</v>
@@ -8212,7 +8212,7 @@
         <v>2.1</v>
       </c>
       <c r="H64" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I64" t="n">
         <v>3.1</v>
@@ -8224,16 +8224,16 @@
         <v>10</v>
       </c>
       <c r="L64" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M64" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N64" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O64" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P64" t="n">
         <v>1.44</v>
@@ -8242,13 +8242,13 @@
         <v>2.63</v>
       </c>
       <c r="R64" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S64" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T64" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U64" t="n">
         <v>10</v>
@@ -8257,16 +8257,16 @@
         <v>9</v>
       </c>
       <c r="W64" t="n">
+        <v>21</v>
+      </c>
+      <c r="X64" t="n">
         <v>19</v>
-      </c>
-      <c r="X64" t="n">
-        <v>17</v>
       </c>
       <c r="Y64" t="n">
         <v>29</v>
       </c>
       <c r="Z64" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA64" t="n">
         <v>6.5</v>
@@ -8278,13 +8278,13 @@
         <v>51</v>
       </c>
       <c r="AD64" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE64" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF64" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG64" t="n">
         <v>12</v>
@@ -8293,7 +8293,7 @@
         <v>34</v>
       </c>
       <c r="AI64" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ64" t="n">
         <v>34</v>
@@ -8453,19 +8453,19 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H66" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I66" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J66" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K66" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L66" t="n">
         <v>1.62</v>
@@ -8492,16 +8492,16 @@
         <v>1.53</v>
       </c>
       <c r="T66" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U66" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V66" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W66" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X66" t="n">
         <v>23</v>
@@ -8528,10 +8528,10 @@
         <v>7</v>
       </c>
       <c r="AF66" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG66" t="n">
         <v>15</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>13</v>
       </c>
       <c r="AH66" t="n">
         <v>41</v>
@@ -8819,19 +8819,19 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H69" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I69" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J69" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K69" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L69" t="n">
         <v>1.36</v>
@@ -8840,10 +8840,10 @@
         <v>3</v>
       </c>
       <c r="N69" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O69" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P69" t="n">
         <v>1.5</v>
@@ -8858,22 +8858,22 @@
         <v>1.8</v>
       </c>
       <c r="T69" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U69" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V69" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W69" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X69" t="n">
         <v>19</v>
       </c>
       <c r="Y69" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z69" t="n">
         <v>8</v>
@@ -8888,10 +8888,10 @@
         <v>51</v>
       </c>
       <c r="AD69" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE69" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF69" t="n">
         <v>17</v>
@@ -8903,7 +8903,7 @@
         <v>41</v>
       </c>
       <c r="AI69" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ69" t="n">
         <v>41</v>
@@ -8941,13 +8941,13 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H70" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I70" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="J70" t="n">
         <v>1.08</v>
@@ -8980,13 +8980,13 @@
         <v>1.8</v>
       </c>
       <c r="T70" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U70" t="n">
         <v>15</v>
       </c>
       <c r="V70" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W70" t="n">
         <v>34</v>
@@ -9016,13 +9016,13 @@
         <v>7</v>
       </c>
       <c r="AF70" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG70" t="n">
         <v>10</v>
       </c>
       <c r="AH70" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI70" t="n">
         <v>21</v>
@@ -9066,16 +9066,16 @@
         <v>2.4</v>
       </c>
       <c r="H71" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I71" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J71" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K71" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L71" t="n">
         <v>1.44</v>
@@ -9096,16 +9096,16 @@
         <v>2.38</v>
       </c>
       <c r="R71" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S71" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T71" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U71" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V71" t="n">
         <v>10</v>
@@ -9117,7 +9117,7 @@
         <v>21</v>
       </c>
       <c r="Y71" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z71" t="n">
         <v>6.5</v>
@@ -9185,46 +9185,46 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H72" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I72" t="n">
         <v>3.1</v>
       </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K72" t="n">
+        <v>13</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O72" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q72" t="n">
         <v>3</v>
       </c>
-      <c r="J72" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K72" t="n">
-        <v>11</v>
-      </c>
-      <c r="L72" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M72" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N72" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="O72" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P72" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>2.75</v>
-      </c>
       <c r="R72" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S72" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T72" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U72" t="n">
         <v>12</v>
@@ -9233,19 +9233,19 @@
         <v>9.5</v>
       </c>
       <c r="W72" t="n">
+        <v>21</v>
+      </c>
+      <c r="X72" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y72" t="n">
         <v>23</v>
       </c>
-      <c r="X72" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>26</v>
-      </c>
       <c r="Z72" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA72" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB72" t="n">
         <v>12</v>
@@ -9257,16 +9257,16 @@
         <v>151</v>
       </c>
       <c r="AE72" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF72" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG72" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH72" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI72" t="n">
         <v>23</v>
@@ -9307,28 +9307,28 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H73" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I73" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J73" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K73" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L73" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M73" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N73" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O73" t="n">
         <v>2</v>
@@ -9349,22 +9349,22 @@
         <v>8</v>
       </c>
       <c r="U73" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V73" t="n">
         <v>8.5</v>
       </c>
       <c r="W73" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X73" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y73" t="n">
         <v>23</v>
       </c>
       <c r="Z73" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA73" t="n">
         <v>7</v>
@@ -9388,7 +9388,7 @@
         <v>15</v>
       </c>
       <c r="AH73" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI73" t="n">
         <v>34</v>
@@ -9557,7 +9557,7 @@
         <v>4.33</v>
       </c>
       <c r="I75" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J75" t="n">
         <v>1.04</v>
@@ -9566,31 +9566,31 @@
         <v>13</v>
       </c>
       <c r="L75" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M75" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N75" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="O75" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="P75" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q75" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R75" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S75" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T75" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U75" t="n">
         <v>6.5</v>
@@ -9605,7 +9605,7 @@
         <v>12</v>
       </c>
       <c r="Y75" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z75" t="n">
         <v>11</v>
@@ -9614,13 +9614,13 @@
         <v>8.5</v>
       </c>
       <c r="AB75" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC75" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD75" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE75" t="n">
         <v>19</v>
@@ -9632,7 +9632,7 @@
         <v>23</v>
       </c>
       <c r="AH75" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI75" t="n">
         <v>51</v>
@@ -9682,34 +9682,34 @@
         <v>3.5</v>
       </c>
       <c r="J76" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K76" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L76" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M76" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N76" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O76" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P76" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R76" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S76" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T76" t="n">
         <v>6.5</v>
@@ -9736,7 +9736,7 @@
         <v>5.5</v>
       </c>
       <c r="AB76" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC76" t="n">
         <v>51</v>
@@ -9745,7 +9745,7 @@
         <v>401</v>
       </c>
       <c r="AE76" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF76" t="n">
         <v>17</v>
@@ -9795,31 +9795,31 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H77" t="n">
         <v>3.3</v>
       </c>
       <c r="I77" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L77" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M77" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N77" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="O77" t="n">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="P77" t="n">
         <v>1.4</v>
@@ -9834,16 +9834,16 @@
         <v>2</v>
       </c>
       <c r="T77" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U77" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V77" t="n">
         <v>9.5</v>
       </c>
       <c r="W77" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X77" t="n">
         <v>19</v>
@@ -9867,7 +9867,7 @@
         <v>201</v>
       </c>
       <c r="AE77" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF77" t="n">
         <v>15</v>
@@ -9876,7 +9876,7 @@
         <v>11</v>
       </c>
       <c r="AH77" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI77" t="n">
         <v>23</v>
@@ -9920,10 +9920,10 @@
         <v>1.72</v>
       </c>
       <c r="H78" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I78" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="J78" t="n">
         <v>1.07</v>
@@ -9932,16 +9932,16 @@
         <v>6.8</v>
       </c>
       <c r="L78" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M78" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="N78" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O78" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P78" t="n">
         <v>1.45</v>
@@ -9950,28 +9950,28 @@
         <v>2.55</v>
       </c>
       <c r="R78" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S78" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T78" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="U78" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="V78" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W78" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="X78" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y78" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z78" t="n">
         <v>6.8</v>
@@ -9980,25 +9980,25 @@
         <v>6.6</v>
       </c>
       <c r="AB78" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC78" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD78" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE78" t="n">
         <v>11.25</v>
       </c>
       <c r="AF78" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG78" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH78" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI78" t="n">
         <v>50</v>
@@ -10060,10 +10060,10 @@
         <v>2.6</v>
       </c>
       <c r="N79" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="O79" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="P79" t="n">
         <v>1.53</v>
@@ -10078,19 +10078,19 @@
         <v>1.78</v>
       </c>
       <c r="T79" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="U79" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="V79" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W79" t="n">
         <v>26</v>
       </c>
       <c r="X79" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y79" t="n">
         <v>37</v>
@@ -10111,13 +10111,13 @@
         <v>900</v>
       </c>
       <c r="AE79" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AF79" t="n">
         <v>13.5</v>
       </c>
       <c r="AG79" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AH79" t="n">
         <v>37</v>
@@ -10161,13 +10161,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.62</v>
+        <v>2.3</v>
       </c>
       <c r="H80" t="n">
         <v>3.1</v>
       </c>
       <c r="I80" t="n">
-        <v>2.52</v>
+        <v>2.9</v>
       </c>
       <c r="J80" t="n">
         <v>1.1</v>
@@ -10182,49 +10182,49 @@
         <v>2.55</v>
       </c>
       <c r="N80" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="O80" t="n">
         <v>1.53</v>
       </c>
       <c r="P80" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="R80" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S80" t="n">
         <v>1.7</v>
       </c>
       <c r="T80" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="U80" t="n">
-        <v>11.75</v>
+        <v>10</v>
       </c>
       <c r="V80" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="W80" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="X80" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Y80" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z80" t="n">
         <v>6</v>
       </c>
       <c r="AA80" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB80" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC80" t="n">
         <v>110</v>
@@ -10233,22 +10233,22 @@
         <v>101</v>
       </c>
       <c r="AE80" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="AF80" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG80" t="n">
         <v>11.25</v>
       </c>
-      <c r="AG80" t="n">
-        <v>10.25</v>
-      </c>
       <c r="AH80" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AI80" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AJ80" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81">
@@ -10313,7 +10313,7 @@
         <v>1.45</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="R81" t="n">
         <v>1.91</v>
@@ -10355,10 +10355,10 @@
         <v>800</v>
       </c>
       <c r="AE81" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AF81" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AG81" t="n">
         <v>8.25</v>
@@ -10893,13 +10893,13 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H86" t="n">
         <v>3.6</v>
       </c>
       <c r="I86" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J86" t="n">
         <v>1.07</v>
@@ -10932,19 +10932,19 @@
         <v>1.7</v>
       </c>
       <c r="T86" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="U86" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="V86" t="n">
         <v>8.25</v>
       </c>
       <c r="W86" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="X86" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y86" t="n">
         <v>32</v>
@@ -10953,7 +10953,7 @@
         <v>6.8</v>
       </c>
       <c r="AA86" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB86" t="n">
         <v>19.5</v>
@@ -10965,10 +10965,10 @@
         <v>101</v>
       </c>
       <c r="AE86" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF86" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG86" t="n">
         <v>20</v>
@@ -10977,10 +10977,10 @@
         <v>150</v>
       </c>
       <c r="AI86" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ86" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87">
@@ -11048,7 +11048,7 @@
         <v>2.5</v>
       </c>
       <c r="R87" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S87" t="n">
         <v>1.87</v>
@@ -11057,7 +11057,7 @@
         <v>6.6</v>
       </c>
       <c r="U87" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="V87" t="n">
         <v>8.75</v>
@@ -11087,7 +11087,7 @@
         <v>600</v>
       </c>
       <c r="AE87" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF87" t="n">
         <v>19</v>
@@ -11259,31 +11259,31 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="H89" t="n">
         <v>3.6</v>
       </c>
       <c r="I89" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="J89" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K89" t="n">
         <v>15</v>
       </c>
       <c r="L89" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M89" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N89" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O89" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P89" t="n">
         <v>1.33</v>
@@ -11292,28 +11292,28 @@
         <v>3.25</v>
       </c>
       <c r="R89" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S89" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T89" t="n">
         <v>12</v>
       </c>
       <c r="U89" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W89" t="n">
         <v>29</v>
       </c>
       <c r="X89" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y89" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z89" t="n">
         <v>15</v>
@@ -11331,7 +11331,7 @@
         <v>126</v>
       </c>
       <c r="AE89" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF89" t="n">
         <v>13</v>
@@ -11381,49 +11381,49 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="H90" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I90" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J90" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K90" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L90" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M90" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N90" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="O90" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="P90" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R90" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S90" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="T90" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U90" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V90" t="n">
         <v>8.5</v>
@@ -11435,25 +11435,25 @@
         <v>15</v>
       </c>
       <c r="Y90" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z90" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA90" t="n">
         <v>7.5</v>
       </c>
       <c r="AB90" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC90" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD90" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AE90" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF90" t="n">
         <v>23</v>
@@ -11465,7 +11465,7 @@
         <v>51</v>
       </c>
       <c r="AI90" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ90" t="n">
         <v>41</v>
@@ -11503,22 +11503,22 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H91" t="n">
         <v>3.5</v>
       </c>
       <c r="I91" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J91" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K91" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L91" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M91" t="n">
         <v>3.25</v>
@@ -11536,13 +11536,13 @@
         <v>2.63</v>
       </c>
       <c r="R91" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S91" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T91" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U91" t="n">
         <v>8.5</v>
@@ -11554,7 +11554,7 @@
         <v>15</v>
       </c>
       <c r="X91" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y91" t="n">
         <v>29</v>
@@ -11625,25 +11625,25 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H92" t="n">
         <v>3.7</v>
       </c>
       <c r="I92" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="J92" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K92" t="n">
         <v>15</v>
       </c>
       <c r="L92" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="M92" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N92" t="n">
         <v>1.65</v>
@@ -11667,7 +11667,7 @@
         <v>13</v>
       </c>
       <c r="U92" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V92" t="n">
         <v>12</v>
@@ -11676,7 +11676,7 @@
         <v>41</v>
       </c>
       <c r="X92" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y92" t="n">
         <v>29</v>
@@ -11697,13 +11697,13 @@
         <v>126</v>
       </c>
       <c r="AE92" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF92" t="n">
         <v>11</v>
       </c>
       <c r="AG92" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH92" t="n">
         <v>19</v>
@@ -11750,46 +11750,46 @@
         <v>2.45</v>
       </c>
       <c r="H93" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K93" t="n">
+        <v>10</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M93" t="n">
         <v>3.25</v>
       </c>
-      <c r="I93" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K93" t="n">
-        <v>9</v>
-      </c>
-      <c r="L93" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M93" t="n">
-        <v>3</v>
-      </c>
       <c r="N93" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O93" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="P93" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S93" t="n">
         <v>1.95</v>
       </c>
-      <c r="S93" t="n">
-        <v>1.8</v>
-      </c>
       <c r="T93" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U93" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V93" t="n">
         <v>10</v>
@@ -11801,37 +11801,37 @@
         <v>21</v>
       </c>
       <c r="Y93" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z93" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AA93" t="n">
         <v>6.5</v>
       </c>
       <c r="AB93" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC93" t="n">
         <v>51</v>
       </c>
       <c r="AD93" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AE93" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF93" t="n">
         <v>13</v>
       </c>
       <c r="AG93" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH93" t="n">
         <v>29</v>
       </c>
       <c r="AI93" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ93" t="n">
         <v>34</v>
@@ -11890,7 +11890,7 @@
         <v>4.5</v>
       </c>
       <c r="N94" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O94" t="n">
         <v>2.2</v>
@@ -12012,7 +12012,7 @@
         <v>4.5</v>
       </c>
       <c r="N95" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O95" t="n">
         <v>2.2</v>
@@ -12113,13 +12113,13 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H96" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I96" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J96" t="n">
         <v>1.03</v>
@@ -12134,7 +12134,7 @@
         <v>5</v>
       </c>
       <c r="N96" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O96" t="n">
         <v>2.4</v>
@@ -12173,7 +12173,7 @@
         <v>15</v>
       </c>
       <c r="AA96" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB96" t="n">
         <v>21</v>
@@ -12235,13 +12235,13 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="H97" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I97" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="J97" t="n">
         <v>1.03</v>
@@ -12256,7 +12256,7 @@
         <v>5</v>
       </c>
       <c r="N97" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="O97" t="n">
         <v>2.35</v>
@@ -12268,22 +12268,22 @@
         <v>3.5</v>
       </c>
       <c r="R97" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S97" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T97" t="n">
         <v>10</v>
       </c>
       <c r="U97" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V97" t="n">
         <v>8.5</v>
       </c>
       <c r="W97" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X97" t="n">
         <v>13</v>
@@ -12295,7 +12295,7 @@
         <v>15</v>
       </c>
       <c r="AA97" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB97" t="n">
         <v>12</v>
@@ -12304,25 +12304,25 @@
         <v>34</v>
       </c>
       <c r="AD97" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE97" t="n">
         <v>17</v>
       </c>
       <c r="AF97" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG97" t="n">
         <v>15</v>
       </c>
       <c r="AH97" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI97" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ97" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98">
@@ -12378,7 +12378,7 @@
         <v>4.33</v>
       </c>
       <c r="N98" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="O98" t="n">
         <v>2.15</v>
@@ -12494,16 +12494,16 @@
         <v>15</v>
       </c>
       <c r="L99" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M99" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N99" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="O99" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P99" t="n">
         <v>1.33</v>
@@ -12601,13 +12601,13 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H100" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I100" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J100" t="n">
         <v>1.03</v>
@@ -12622,37 +12622,37 @@
         <v>4.5</v>
       </c>
       <c r="N100" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="O100" t="n">
         <v>2.25</v>
       </c>
       <c r="P100" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q100" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R100" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S100" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T100" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U100" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V100" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W100" t="n">
         <v>21</v>
       </c>
       <c r="X100" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y100" t="n">
         <v>21</v>
@@ -12679,13 +12679,13 @@
         <v>17</v>
       </c>
       <c r="AG100" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH100" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI100" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ100" t="n">
         <v>26</v>
@@ -12726,43 +12726,43 @@
         <v>2.3</v>
       </c>
       <c r="H101" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I101" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J101" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K101" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L101" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M101" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N101" t="n">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
       <c r="O101" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="P101" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R101" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="S101" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="T101" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="U101" t="n">
         <v>12</v>
@@ -12771,19 +12771,19 @@
         <v>9.5</v>
       </c>
       <c r="W101" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X101" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y101" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z101" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA101" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB101" t="n">
         <v>13</v>
@@ -12792,10 +12792,10 @@
         <v>41</v>
       </c>
       <c r="AD101" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE101" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF101" t="n">
         <v>15</v>
@@ -12807,10 +12807,10 @@
         <v>29</v>
       </c>
       <c r="AI101" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ101" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102">
@@ -12854,13 +12854,13 @@
         <v>2.25</v>
       </c>
       <c r="J102" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K102" t="n">
         <v>15</v>
       </c>
       <c r="L102" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M102" t="n">
         <v>4.33</v>
@@ -12967,22 +12967,22 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H103" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I103" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J103" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K103" t="n">
         <v>13</v>
       </c>
       <c r="L103" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M103" t="n">
         <v>4</v>
@@ -13000,16 +13000,16 @@
         <v>3</v>
       </c>
       <c r="R103" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S103" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T103" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U103" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V103" t="n">
         <v>8.5</v>
@@ -13018,7 +13018,7 @@
         <v>15</v>
       </c>
       <c r="X103" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y103" t="n">
         <v>23</v>
@@ -13030,28 +13030,28 @@
         <v>7</v>
       </c>
       <c r="AB103" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC103" t="n">
         <v>41</v>
       </c>
       <c r="AD103" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE103" t="n">
         <v>13</v>
       </c>
       <c r="AF103" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG103" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH103" t="n">
         <v>41</v>
       </c>
       <c r="AI103" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ103" t="n">
         <v>34</v>
@@ -13089,13 +13089,13 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H104" t="n">
         <v>3.1</v>
       </c>
       <c r="I104" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J104" t="n">
         <v>1.1</v>
@@ -13113,7 +13113,7 @@
         <v>2.5</v>
       </c>
       <c r="O104" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P104" t="n">
         <v>1.57</v>
@@ -13131,7 +13131,7 @@
         <v>6</v>
       </c>
       <c r="U104" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V104" t="n">
         <v>10</v>
@@ -13235,7 +13235,7 @@
         <v>2.2</v>
       </c>
       <c r="O105" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P105" t="n">
         <v>1.5</v>
@@ -13354,10 +13354,10 @@
         <v>3.5</v>
       </c>
       <c r="N106" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="O106" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="P106" t="n">
         <v>1.4</v>
@@ -13455,13 +13455,13 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H107" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I107" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J107" t="n">
         <v>1.04</v>
@@ -13476,7 +13476,7 @@
         <v>4</v>
       </c>
       <c r="N107" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O107" t="n">
         <v>2.1</v>
@@ -13488,10 +13488,10 @@
         <v>3.25</v>
       </c>
       <c r="R107" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S107" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T107" t="n">
         <v>8</v>
@@ -13539,7 +13539,7 @@
         <v>51</v>
       </c>
       <c r="AI107" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ107" t="n">
         <v>41</v>
@@ -13577,67 +13577,67 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H108" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I108" t="n">
         <v>5.75</v>
       </c>
       <c r="J108" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K108" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L108" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="M108" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N108" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="O108" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="P108" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q108" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R108" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S108" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="T108" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="U108" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V108" t="n">
         <v>8.5</v>
       </c>
       <c r="W108" t="n">
+        <v>12</v>
+      </c>
+      <c r="X108" t="n">
         <v>11</v>
       </c>
-      <c r="X108" t="n">
-        <v>12</v>
-      </c>
       <c r="Y108" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z108" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA108" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB108" t="n">
         <v>15</v>
@@ -13649,7 +13649,7 @@
         <v>151</v>
       </c>
       <c r="AE108" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF108" t="n">
         <v>34</v>
@@ -13658,7 +13658,7 @@
         <v>17</v>
       </c>
       <c r="AH108" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI108" t="n">
         <v>41</v>
@@ -13699,85 +13699,85 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H109" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I109" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K109" t="n">
+        <v>17</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M109" t="n">
         <v>5</v>
       </c>
-      <c r="J109" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K109" t="n">
-        <v>13</v>
-      </c>
-      <c r="L109" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M109" t="n">
-        <v>4</v>
-      </c>
       <c r="N109" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="O109" t="n">
-        <v>2.07</v>
+        <v>2.35</v>
       </c>
       <c r="P109" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Q109" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="R109" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S109" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T109" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U109" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V109" t="n">
         <v>8.5</v>
       </c>
       <c r="W109" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X109" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y109" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z109" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA109" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB109" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC109" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD109" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE109" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF109" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG109" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH109" t="n">
         <v>51</v>
@@ -13821,13 +13821,13 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H110" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I110" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J110" t="n">
         <v>1.07</v>
@@ -13842,10 +13842,10 @@
         <v>3.25</v>
       </c>
       <c r="N110" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="O110" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P110" t="n">
         <v>1.44</v>
@@ -13854,13 +13854,13 @@
         <v>2.63</v>
       </c>
       <c r="R110" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S110" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T110" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U110" t="n">
         <v>8.5</v>
@@ -13869,7 +13869,7 @@
         <v>9</v>
       </c>
       <c r="W110" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X110" t="n">
         <v>17</v>
@@ -13890,7 +13890,7 @@
         <v>51</v>
       </c>
       <c r="AD110" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE110" t="n">
         <v>10</v>
@@ -13943,22 +13943,22 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H111" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I111" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J111" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K111" t="n">
         <v>11</v>
       </c>
       <c r="L111" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M111" t="n">
         <v>3.75</v>
@@ -13970,10 +13970,10 @@
         <v>1.98</v>
       </c>
       <c r="P111" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q111" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R111" t="n">
         <v>1.67</v>
@@ -14024,7 +14024,7 @@
         <v>9</v>
       </c>
       <c r="AH111" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI111" t="n">
         <v>17</v>
@@ -14065,22 +14065,22 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="H112" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I112" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J112" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K112" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L112" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M112" t="n">
         <v>3.5</v>
@@ -14146,7 +14146,7 @@
         <v>10</v>
       </c>
       <c r="AH112" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI112" t="n">
         <v>21</v>
@@ -14187,7 +14187,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="H113" t="n">
         <v>4</v>
@@ -14196,13 +14196,13 @@
         <v>5.5</v>
       </c>
       <c r="J113" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K113" t="n">
         <v>10</v>
       </c>
       <c r="L113" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M113" t="n">
         <v>3.25</v>
@@ -14211,7 +14211,7 @@
         <v>2.05</v>
       </c>
       <c r="O113" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P113" t="n">
         <v>1.44</v>
@@ -14309,31 +14309,31 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H114" t="n">
         <v>3.3</v>
       </c>
       <c r="I114" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J114" t="n">
         <v>1.08</v>
       </c>
       <c r="K114" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="L114" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M114" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N114" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O114" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P114" t="n">
         <v>1.53</v>
@@ -14342,19 +14342,19 @@
         <v>2.38</v>
       </c>
       <c r="R114" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="S114" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="T114" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U114" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V114" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W114" t="n">
         <v>13</v>
@@ -14363,16 +14363,16 @@
         <v>17</v>
       </c>
       <c r="Y114" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z114" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA114" t="n">
         <v>6.5</v>
       </c>
-      <c r="AA114" t="n">
-        <v>7</v>
-      </c>
       <c r="AB114" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC114" t="n">
         <v>81</v>
@@ -14382,16 +14382,16 @@
         <v>10</v>
       </c>
       <c r="AF114" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG114" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH114" t="n">
         <v>51</v>
       </c>
       <c r="AI114" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ114" t="n">
         <v>51</v>
@@ -14456,19 +14456,19 @@
         <v>1.67</v>
       </c>
       <c r="P115" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q115" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R115" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S115" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T115" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U115" t="n">
         <v>17</v>
@@ -14498,10 +14498,10 @@
         <v>51</v>
       </c>
       <c r="AD115" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE115" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF115" t="n">
         <v>9.5</v>
@@ -14516,7 +14516,7 @@
         <v>19</v>
       </c>
       <c r="AJ115" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116">
@@ -14554,10 +14554,10 @@
         <v>1.42</v>
       </c>
       <c r="H116" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I116" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J116" t="n">
         <v>1.01</v>
@@ -14572,10 +14572,10 @@
         <v>7</v>
       </c>
       <c r="N116" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="O116" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P116" t="n">
         <v>1.2</v>
@@ -14590,13 +14590,13 @@
         <v>2.63</v>
       </c>
       <c r="T116" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U116" t="n">
         <v>11</v>
       </c>
       <c r="V116" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W116" t="n">
         <v>13</v>
@@ -14611,7 +14611,7 @@
         <v>29</v>
       </c>
       <c r="AA116" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB116" t="n">
         <v>15</v>
@@ -14626,10 +14626,10 @@
         <v>26</v>
       </c>
       <c r="AF116" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG116" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH116" t="n">
         <v>51</v>
@@ -14673,13 +14673,13 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="H117" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I117" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J117" t="n">
         <v>1.02</v>
@@ -14694,10 +14694,10 @@
         <v>5.5</v>
       </c>
       <c r="N117" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O117" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="P117" t="n">
         <v>1.25</v>
@@ -14706,13 +14706,13 @@
         <v>3.75</v>
       </c>
       <c r="R117" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S117" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T117" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U117" t="n">
         <v>9</v>
@@ -14751,10 +14751,10 @@
         <v>34</v>
       </c>
       <c r="AG117" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH117" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI117" t="n">
         <v>41</v>
@@ -14795,19 +14795,19 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H118" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="I118" t="n">
         <v>1.55</v>
       </c>
       <c r="J118" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K118" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="L118" t="n">
         <v>1.19</v>
@@ -14834,10 +14834,10 @@
         <v>2.1</v>
       </c>
       <c r="T118" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="U118" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V118" t="n">
         <v>16.5</v>
@@ -14846,13 +14846,13 @@
         <v>100</v>
       </c>
       <c r="X118" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Y118" t="n">
         <v>40</v>
       </c>
       <c r="Z118" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA118" t="n">
         <v>8.25</v>
@@ -14861,28 +14861,28 @@
         <v>14.5</v>
       </c>
       <c r="AC118" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD118" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE118" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF118" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AF118" t="n">
-        <v>8.25</v>
       </c>
       <c r="AG118" t="n">
         <v>8</v>
       </c>
       <c r="AH118" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AI118" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AJ118" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119">
@@ -14956,7 +14956,7 @@
         <v>1.91</v>
       </c>
       <c r="T119" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="U119" t="n">
         <v>21</v>
@@ -14977,7 +14977,7 @@
         <v>7.3</v>
       </c>
       <c r="AA119" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AB119" t="n">
         <v>15</v>
@@ -14989,7 +14989,7 @@
         <v>600</v>
       </c>
       <c r="AE119" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AF119" t="n">
         <v>8.75</v>
@@ -15039,7 +15039,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="H120" t="n">
         <v>3.4</v>
@@ -15161,31 +15161,31 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="H121" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I121" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="J121" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K121" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L121" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M121" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N121" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O121" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="P121" t="n">
         <v>1.44</v>
@@ -15194,31 +15194,31 @@
         <v>2.63</v>
       </c>
       <c r="R121" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="S121" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="T121" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U121" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="V121" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W121" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X121" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Y121" t="n">
         <v>29</v>
       </c>
       <c r="Z121" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA121" t="n">
         <v>6.5</v>
@@ -15230,13 +15230,13 @@
         <v>51</v>
       </c>
       <c r="AD121" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE121" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AF121" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG121" t="n">
         <v>13</v>
@@ -15283,13 +15283,13 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H122" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I122" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J122" t="n">
         <v>1.02</v>
@@ -15298,49 +15298,49 @@
         <v>21</v>
       </c>
       <c r="L122" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M122" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N122" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O122" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="P122" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q122" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R122" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S122" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T122" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U122" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V122" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W122" t="n">
         <v>10</v>
       </c>
       <c r="X122" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y122" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z122" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA122" t="n">
         <v>11</v>
@@ -15355,10 +15355,10 @@
         <v>151</v>
       </c>
       <c r="AE122" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF122" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG122" t="n">
         <v>19</v>
@@ -15405,19 +15405,19 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H123" t="n">
         <v>3.5</v>
       </c>
       <c r="I123" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="J123" t="n">
         <v>1.04</v>
       </c>
       <c r="K123" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L123" t="n">
         <v>1.25</v>
@@ -15438,28 +15438,28 @@
         <v>3</v>
       </c>
       <c r="R123" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S123" t="n">
         <v>2.1</v>
       </c>
       <c r="T123" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U123" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V123" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W123" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X123" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y123" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z123" t="n">
         <v>12</v>
@@ -15477,19 +15477,19 @@
         <v>151</v>
       </c>
       <c r="AE123" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF123" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG123" t="n">
         <v>11</v>
       </c>
       <c r="AH123" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI123" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ123" t="n">
         <v>29</v>
@@ -15530,7 +15530,7 @@
         <v>1.85</v>
       </c>
       <c r="H124" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I124" t="n">
         <v>3.75</v>
@@ -15539,7 +15539,7 @@
         <v>1.03</v>
       </c>
       <c r="K124" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L124" t="n">
         <v>1.17</v>
@@ -15554,16 +15554,16 @@
         <v>2.35</v>
       </c>
       <c r="P124" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q124" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R124" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S124" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T124" t="n">
         <v>10</v>
@@ -15584,7 +15584,7 @@
         <v>21</v>
       </c>
       <c r="Z124" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA124" t="n">
         <v>7.5</v>
@@ -15593,7 +15593,7 @@
         <v>12</v>
       </c>
       <c r="AC124" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD124" t="n">
         <v>126</v>
@@ -15602,7 +15602,7 @@
         <v>15</v>
       </c>
       <c r="AF124" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG124" t="n">
         <v>13</v>
@@ -15649,46 +15649,46 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H125" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I125" t="n">
         <v>4.33</v>
       </c>
       <c r="J125" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K125" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L125" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M125" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N125" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O125" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P125" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q125" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R125" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S125" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T125" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U125" t="n">
         <v>9.5</v>
@@ -15703,13 +15703,13 @@
         <v>13</v>
       </c>
       <c r="Y125" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z125" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA125" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB125" t="n">
         <v>13</v>
@@ -15733,7 +15733,7 @@
         <v>41</v>
       </c>
       <c r="AI125" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ125" t="n">
         <v>34</v>
@@ -16024,10 +16024,10 @@
         <v>2.7</v>
       </c>
       <c r="J128" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K128" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L128" t="n">
         <v>1.33</v>
@@ -16048,10 +16048,10 @@
         <v>2.63</v>
       </c>
       <c r="R128" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S128" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T128" t="n">
         <v>8</v>
@@ -16069,10 +16069,10 @@
         <v>21</v>
       </c>
       <c r="Y128" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z128" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA128" t="n">
         <v>6</v>
@@ -16084,7 +16084,7 @@
         <v>51</v>
       </c>
       <c r="AD128" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE128" t="n">
         <v>8.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-21.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
@@ -662,16 +662,16 @@
         <v>13</v>
       </c>
       <c r="L2" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N2" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="O2" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="P2" t="n">
         <v>1.3</v>
@@ -769,25 +769,25 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="n">
         <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N3" t="n">
         <v>2.5</v>
@@ -811,7 +811,7 @@
         <v>6.5</v>
       </c>
       <c r="U3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V3" t="n">
         <v>10</v>
@@ -826,7 +826,7 @@
         <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="n">
         <v>5.5</v>
@@ -1266,10 +1266,10 @@
         <v>2.55</v>
       </c>
       <c r="J7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L7" t="n">
         <v>1.29</v>
@@ -1278,10 +1278,10 @@
         <v>3.75</v>
       </c>
       <c r="N7" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O7" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="P7" t="n">
         <v>1.4</v>
@@ -1379,37 +1379,37 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
         <v>4.1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N8" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R8" t="n">
         <v>2.1</v>
@@ -1418,7 +1418,7 @@
         <v>1.67</v>
       </c>
       <c r="T8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U8" t="n">
         <v>8</v>
@@ -1439,13 +1439,13 @@
         <v>7.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD8" t="n">
         <v>501</v>
@@ -1501,19 +1501,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K9" t="n">
         <v>9</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K9" t="n">
-        <v>8</v>
       </c>
       <c r="L9" t="n">
         <v>1.36</v>
@@ -1522,10 +1522,10 @@
         <v>3</v>
       </c>
       <c r="N9" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P9" t="n">
         <v>1.44</v>
@@ -1540,7 +1540,7 @@
         <v>1.53</v>
       </c>
       <c r="T9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U9" t="n">
         <v>6</v>
@@ -1549,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="W9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X9" t="n">
         <v>15</v>
@@ -1558,10 +1558,10 @@
         <v>41</v>
       </c>
       <c r="Z9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB9" t="n">
         <v>23</v>
@@ -1579,7 +1579,7 @@
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH9" t="n">
         <v>101</v>
@@ -1894,10 +1894,10 @@
         <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
         <v>2.5</v>
@@ -1992,43 +1992,43 @@
         <v>1.7</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L13" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N13" t="n">
         <v>2.08</v>
       </c>
       <c r="O13" t="n">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="P13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S13" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U13" t="n">
         <v>7.5</v>
@@ -2046,19 +2046,19 @@
         <v>29</v>
       </c>
       <c r="Z13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA13" t="n">
         <v>7</v>
       </c>
       <c r="AB13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD13" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE13" t="n">
         <v>12</v>
@@ -2076,7 +2076,7 @@
         <v>41</v>
       </c>
       <c r="AJ13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
@@ -2599,91 +2599,91 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J18" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K18" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M18" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N18" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="P18" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="R18" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S18" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="T18" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="U18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V18" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W18" t="n">
+        <v>19</v>
+      </c>
+      <c r="X18" t="n">
         <v>18.5</v>
       </c>
-      <c r="X18" t="n">
-        <v>17</v>
-      </c>
       <c r="Y18" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="Z18" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AB18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC18" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AD18" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE18" t="n">
         <v>9.25</v>
       </c>
       <c r="AF18" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG18" t="n">
         <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI18" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ18" t="n">
         <v>45</v>
@@ -2724,16 +2724,16 @@
         <v>7</v>
       </c>
       <c r="H19" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="J19" t="n">
         <v>1.04</v>
       </c>
       <c r="K19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L19" t="n">
         <v>1.25</v>
@@ -2742,10 +2742,10 @@
         <v>3.75</v>
       </c>
       <c r="N19" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O19" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
         <v>1.36</v>
@@ -2763,7 +2763,7 @@
         <v>15</v>
       </c>
       <c r="U19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="V19" t="n">
         <v>21</v>
@@ -2784,13 +2784,13 @@
         <v>10</v>
       </c>
       <c r="AB19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC19" t="n">
         <v>81</v>
       </c>
       <c r="AD19" t="n">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="AE19" t="n">
         <v>6.5</v>
@@ -2805,10 +2805,10 @@
         <v>8.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
@@ -2852,10 +2852,10 @@
         <v>7.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L20" t="n">
         <v>1.22</v>
@@ -3102,10 +3102,10 @@
         <v>5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="M22" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N22" t="n">
         <v>3.1</v>
@@ -3168,7 +3168,7 @@
         <v>17</v>
       </c>
       <c r="AH22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI22" t="n">
         <v>41</v>
@@ -3209,37 +3209,37 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="H23" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I23" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="J23" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="K23" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L23" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M23" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="N23" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="O23" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P23" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="R23" t="n">
         <v>2.27</v>
@@ -3251,28 +3251,28 @@
         <v>4.65</v>
       </c>
       <c r="U23" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="V23" t="n">
         <v>9</v>
       </c>
       <c r="W23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X23" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y23" t="n">
         <v>45</v>
       </c>
       <c r="Z23" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC23" t="n">
         <v>175</v>
@@ -3281,19 +3281,19 @@
         <v>101</v>
       </c>
       <c r="AE23" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AF23" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH23" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI23" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ23" t="n">
         <v>100</v>
@@ -3453,7 +3453,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H25" t="n">
         <v>3.1</v>
@@ -3474,10 +3474,10 @@
         <v>2.75</v>
       </c>
       <c r="N25" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P25" t="n">
         <v>1.53</v>
@@ -3531,7 +3531,7 @@
         <v>21</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH25" t="n">
         <v>51</v>
@@ -3584,16 +3584,16 @@
         <v>4.1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L26" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M26" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N26" t="n">
         <v>2.2</v>
@@ -3700,7 +3700,7 @@
         <v>1.25</v>
       </c>
       <c r="H27" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I27" t="n">
         <v>11</v>
@@ -3712,16 +3712,16 @@
         <v>15</v>
       </c>
       <c r="L27" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M27" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N27" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O27" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P27" t="n">
         <v>1.3</v>
@@ -3742,7 +3742,7 @@
         <v>6</v>
       </c>
       <c r="V27" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W27" t="n">
         <v>7.5</v>
@@ -3751,7 +3751,7 @@
         <v>12</v>
       </c>
       <c r="Y27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z27" t="n">
         <v>13</v>
@@ -3765,7 +3765,9 @@
       <c r="AC27" t="n">
         <v>81</v>
       </c>
-      <c r="AD27" t="inlineStr"/>
+      <c r="AD27" t="n">
+        <v>501</v>
+      </c>
       <c r="AE27" t="n">
         <v>23</v>
       </c>
@@ -3942,10 +3944,10 @@
         <v>2.25</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
         <v>1.07</v>
@@ -3978,10 +3980,10 @@
         <v>1.83</v>
       </c>
       <c r="T29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V29" t="n">
         <v>9.5</v>
@@ -3993,22 +3995,22 @@
         <v>19</v>
       </c>
       <c r="Y29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z29" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA29" t="n">
         <v>6.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC29" t="n">
         <v>51</v>
       </c>
       <c r="AD29" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE29" t="n">
         <v>8.5</v>
@@ -4026,7 +4028,7 @@
         <v>26</v>
       </c>
       <c r="AJ29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -4076,10 +4078,10 @@
         <v>13</v>
       </c>
       <c r="L30" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M30" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N30" t="n">
         <v>1.67</v>
@@ -4088,16 +4090,16 @@
         <v>2.2</v>
       </c>
       <c r="P30" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R30" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S30" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T30" t="n">
         <v>17</v>
@@ -4118,7 +4120,7 @@
         <v>41</v>
       </c>
       <c r="Z30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA30" t="n">
         <v>7.5</v>
@@ -4130,10 +4132,10 @@
         <v>41</v>
       </c>
       <c r="AD30" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF30" t="n">
         <v>8.5</v>
@@ -4142,7 +4144,7 @@
         <v>8.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI30" t="n">
         <v>12</v>
@@ -4183,13 +4185,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J31" t="n">
         <v>1.06</v>
@@ -4198,16 +4200,16 @@
         <v>10</v>
       </c>
       <c r="L31" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M31" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N31" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O31" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P31" t="n">
         <v>1.4</v>
@@ -4234,7 +4236,7 @@
         <v>17</v>
       </c>
       <c r="X31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y31" t="n">
         <v>26</v>
@@ -4326,10 +4328,10 @@
         <v>3</v>
       </c>
       <c r="N32" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O32" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P32" t="n">
         <v>1.5</v>
@@ -4427,37 +4429,37 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J33" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K33" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L33" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N33" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O33" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P33" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q33" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R33" t="n">
         <v>1.62</v>
@@ -4469,7 +4471,7 @@
         <v>12</v>
       </c>
       <c r="U33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V33" t="n">
         <v>12</v>
@@ -4478,16 +4480,16 @@
         <v>34</v>
       </c>
       <c r="X33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y33" t="n">
         <v>29</v>
       </c>
       <c r="Z33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA33" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB33" t="n">
         <v>12</v>
@@ -4508,10 +4510,10 @@
         <v>9</v>
       </c>
       <c r="AH33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ33" t="n">
         <v>23</v>
@@ -4558,10 +4560,10 @@
         <v>4.33</v>
       </c>
       <c r="J34" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K34" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L34" t="n">
         <v>1.33</v>
@@ -4570,10 +4572,10 @@
         <v>3.4</v>
       </c>
       <c r="N34" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O34" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P34" t="n">
         <v>1.44</v>
@@ -4671,13 +4673,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H35" t="n">
         <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J35" t="n">
         <v>1.08</v>
@@ -4719,10 +4721,10 @@
         <v>9</v>
       </c>
       <c r="W35" t="n">
+        <v>15</v>
+      </c>
+      <c r="X35" t="n">
         <v>17</v>
-      </c>
-      <c r="X35" t="n">
-        <v>19</v>
       </c>
       <c r="Y35" t="n">
         <v>34</v>
@@ -4734,7 +4736,7 @@
         <v>7</v>
       </c>
       <c r="AB35" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC35" t="n">
         <v>67</v>
@@ -4743,7 +4745,7 @@
         <v>501</v>
       </c>
       <c r="AE35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF35" t="n">
         <v>19</v>
@@ -4793,13 +4795,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H36" t="n">
         <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J36" t="n">
         <v>1.08</v>
@@ -4841,7 +4843,7 @@
         <v>9</v>
       </c>
       <c r="W36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X36" t="n">
         <v>19</v>
@@ -4915,10 +4917,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H37" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I37" t="n">
         <v>2.75</v>
@@ -4927,7 +4929,7 @@
         <v>1.02</v>
       </c>
       <c r="K37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L37" t="n">
         <v>1.13</v>
@@ -4936,10 +4938,10 @@
         <v>6</v>
       </c>
       <c r="N37" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O37" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P37" t="n">
         <v>1.25</v>
@@ -4948,16 +4950,16 @@
         <v>3.75</v>
       </c>
       <c r="R37" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S37" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V37" t="n">
         <v>10</v>
@@ -4969,25 +4971,25 @@
         <v>17</v>
       </c>
       <c r="Y37" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z37" t="n">
         <v>21</v>
       </c>
-      <c r="Z37" t="n">
-        <v>19</v>
-      </c>
       <c r="AA37" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC37" t="n">
         <v>26</v>
       </c>
       <c r="AD37" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AE37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF37" t="n">
         <v>19</v>
@@ -5058,10 +5060,10 @@
         <v>3.5</v>
       </c>
       <c r="N38" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O38" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P38" t="n">
         <v>1.4</v>
@@ -5159,7 +5161,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H39" t="n">
         <v>3.1</v>
@@ -5171,7 +5173,7 @@
         <v>1.08</v>
       </c>
       <c r="K39" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L39" t="n">
         <v>1.4</v>
@@ -5180,10 +5182,10 @@
         <v>2.75</v>
       </c>
       <c r="N39" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O39" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P39" t="n">
         <v>1.5</v>
@@ -5207,10 +5209,10 @@
         <v>10</v>
       </c>
       <c r="W39" t="n">
+        <v>26</v>
+      </c>
+      <c r="X39" t="n">
         <v>23</v>
-      </c>
-      <c r="X39" t="n">
-        <v>21</v>
       </c>
       <c r="Y39" t="n">
         <v>34</v>
@@ -5281,19 +5283,19 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H40" t="n">
         <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J40" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K40" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L40" t="n">
         <v>1.29</v>
@@ -5302,10 +5304,10 @@
         <v>3.5</v>
       </c>
       <c r="N40" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O40" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P40" t="n">
         <v>1.4</v>
@@ -5329,7 +5331,7 @@
         <v>13</v>
       </c>
       <c r="W40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X40" t="n">
         <v>34</v>
@@ -5338,7 +5340,7 @@
         <v>41</v>
       </c>
       <c r="Z40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA40" t="n">
         <v>7.5</v>
@@ -5356,13 +5358,13 @@
         <v>7</v>
       </c>
       <c r="AF40" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG40" t="n">
         <v>8.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI40" t="n">
         <v>15</v>
@@ -5409,7 +5411,7 @@
         <v>3.5</v>
       </c>
       <c r="I41" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J41" t="n">
         <v>1.05</v>
@@ -5424,16 +5426,16 @@
         <v>3.75</v>
       </c>
       <c r="N41" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O41" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P41" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R41" t="n">
         <v>1.75</v>
@@ -5466,7 +5468,7 @@
         <v>6.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC41" t="n">
         <v>41</v>
@@ -5490,7 +5492,7 @@
         <v>15</v>
       </c>
       <c r="AJ41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
@@ -5546,7 +5548,7 @@
         <v>3.75</v>
       </c>
       <c r="N42" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O42" t="n">
         <v>2</v>
@@ -5656,16 +5658,16 @@
         <v>2.45</v>
       </c>
       <c r="J43" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L43" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M43" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N43" t="n">
         <v>2.05</v>
@@ -5769,13 +5771,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H44" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I44" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J44" t="n">
         <v>1.04</v>
@@ -5784,16 +5786,16 @@
         <v>13</v>
       </c>
       <c r="L44" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M44" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N44" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O44" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P44" t="n">
         <v>1.33</v>
@@ -5814,7 +5816,7 @@
         <v>11</v>
       </c>
       <c r="V44" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W44" t="n">
         <v>19</v>
@@ -5823,7 +5825,7 @@
         <v>15</v>
       </c>
       <c r="Y44" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z44" t="n">
         <v>13</v>
@@ -5841,7 +5843,7 @@
         <v>151</v>
       </c>
       <c r="AE44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF44" t="n">
         <v>19</v>
@@ -5850,10 +5852,10 @@
         <v>12</v>
       </c>
       <c r="AH44" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI44" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ44" t="n">
         <v>29</v>
@@ -5900,10 +5902,10 @@
         <v>6.25</v>
       </c>
       <c r="J45" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K45" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L45" t="n">
         <v>1.3</v>
@@ -6013,31 +6015,31 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H46" t="n">
         <v>3.6</v>
       </c>
       <c r="I46" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J46" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K46" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="L46" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M46" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N46" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="O46" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="P46" t="n">
         <v>1.44</v>
@@ -6046,10 +6048,10 @@
         <v>2.63</v>
       </c>
       <c r="R46" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S46" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T46" t="n">
         <v>6.5</v>
@@ -6061,7 +6063,7 @@
         <v>8.5</v>
       </c>
       <c r="W46" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X46" t="n">
         <v>15</v>
@@ -6070,10 +6072,10 @@
         <v>29</v>
       </c>
       <c r="Z46" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB46" t="n">
         <v>17</v>
@@ -6082,7 +6084,7 @@
         <v>51</v>
       </c>
       <c r="AD46" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE46" t="n">
         <v>11</v>
@@ -6135,13 +6137,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H47" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="J47" t="n">
         <v>1.08</v>
@@ -6150,22 +6152,22 @@
         <v>8</v>
       </c>
       <c r="L47" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M47" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N47" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="O47" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P47" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R47" t="n">
         <v>2</v>
@@ -6180,7 +6182,7 @@
         <v>10</v>
       </c>
       <c r="V47" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W47" t="n">
         <v>21</v>
@@ -6192,7 +6194,7 @@
         <v>34</v>
       </c>
       <c r="Z47" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA47" t="n">
         <v>6.5</v>
@@ -6204,10 +6206,10 @@
         <v>67</v>
       </c>
       <c r="AD47" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE47" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF47" t="n">
         <v>15</v>
@@ -6257,31 +6259,31 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I48" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J48" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K48" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L48" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M48" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N48" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O48" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P48" t="n">
         <v>1.5</v>
@@ -6305,19 +6307,19 @@
         <v>9</v>
       </c>
       <c r="W48" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X48" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y48" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z48" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA48" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB48" t="n">
         <v>17</v>
@@ -6326,13 +6328,13 @@
         <v>51</v>
       </c>
       <c r="AD48" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE48" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF48" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG48" t="n">
         <v>13</v>
@@ -6379,31 +6381,31 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="H49" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I49" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J49" t="n">
         <v>1.04</v>
       </c>
       <c r="K49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L49" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M49" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N49" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O49" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P49" t="n">
         <v>1.36</v>
@@ -6436,7 +6438,7 @@
         <v>41</v>
       </c>
       <c r="Z49" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA49" t="n">
         <v>7.5</v>
@@ -6463,7 +6465,7 @@
         <v>11</v>
       </c>
       <c r="AI49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ49" t="n">
         <v>26</v>
@@ -6501,31 +6503,31 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H50" t="n">
         <v>3.2</v>
       </c>
       <c r="I50" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
         <v>1.06</v>
       </c>
       <c r="K50" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L50" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M50" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N50" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O50" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P50" t="n">
         <v>1.44</v>
@@ -6540,7 +6542,7 @@
         <v>1.91</v>
       </c>
       <c r="T50" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U50" t="n">
         <v>11</v>
@@ -6552,19 +6554,19 @@
         <v>23</v>
       </c>
       <c r="X50" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y50" t="n">
         <v>29</v>
       </c>
       <c r="Z50" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA50" t="n">
         <v>6</v>
       </c>
       <c r="AB50" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC50" t="n">
         <v>51</v>
@@ -6573,7 +6575,7 @@
         <v>251</v>
       </c>
       <c r="AE50" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF50" t="n">
         <v>15</v>
@@ -6582,10 +6584,10 @@
         <v>11</v>
       </c>
       <c r="AH50" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI50" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ50" t="n">
         <v>34</v>
@@ -6623,31 +6625,31 @@
         </is>
       </c>
       <c r="G51" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K51" t="n">
+        <v>8</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="n">
         <v>2.2</v>
       </c>
-      <c r="H51" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K51" t="n">
-        <v>9</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M51" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N51" t="n">
-        <v>2.3</v>
-      </c>
       <c r="O51" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="P51" t="n">
         <v>1.5</v>
@@ -6656,22 +6658,22 @@
         <v>2.5</v>
       </c>
       <c r="R51" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S51" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="T51" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="U51" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="V51" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W51" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X51" t="n">
         <v>21</v>
@@ -6683,31 +6685,31 @@
         <v>8</v>
       </c>
       <c r="AA51" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC51" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD51" t="n">
-        <v>451</v>
+        <v>301</v>
       </c>
       <c r="AE51" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF51" t="n">
         <v>15</v>
       </c>
       <c r="AG51" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH51" t="n">
         <v>34</v>
       </c>
       <c r="AI51" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ51" t="n">
         <v>41</v>
@@ -6745,7 +6747,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H52" t="n">
         <v>3.25</v>
@@ -6754,10 +6756,10 @@
         <v>2.63</v>
       </c>
       <c r="J52" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K52" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L52" t="n">
         <v>1.33</v>
@@ -6888,10 +6890,10 @@
         <v>3.5</v>
       </c>
       <c r="N53" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O53" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="P53" t="n">
         <v>1.4</v>
@@ -6989,19 +6991,19 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="H54" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I54" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="J54" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K54" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L54" t="n">
         <v>1.33</v>
@@ -7010,10 +7012,10 @@
         <v>3.25</v>
       </c>
       <c r="N54" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O54" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P54" t="n">
         <v>1.44</v>
@@ -7031,16 +7033,16 @@
         <v>6.5</v>
       </c>
       <c r="U54" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V54" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W54" t="n">
         <v>15</v>
       </c>
       <c r="X54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y54" t="n">
         <v>29</v>
@@ -7049,7 +7051,7 @@
         <v>9</v>
       </c>
       <c r="AA54" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB54" t="n">
         <v>17</v>
@@ -7058,22 +7060,22 @@
         <v>51</v>
       </c>
       <c r="AD54" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF54" t="n">
         <v>21</v>
       </c>
       <c r="AG54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH54" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI54" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ54" t="n">
         <v>41</v>
@@ -7120,22 +7122,22 @@
         <v>2.15</v>
       </c>
       <c r="J55" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L55" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M55" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N55" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O55" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P55" t="n">
         <v>1.57</v>
@@ -7355,31 +7357,31 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H57" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I57" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K57" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L57" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M57" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N57" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O57" t="n">
         <v>2</v>
-      </c>
-      <c r="O57" t="n">
-        <v>1.85</v>
       </c>
       <c r="P57" t="n">
         <v>1.4</v>
@@ -7388,16 +7390,16 @@
         <v>2.75</v>
       </c>
       <c r="R57" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S57" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U57" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V57" t="n">
         <v>12</v>
@@ -7412,7 +7414,7 @@
         <v>34</v>
       </c>
       <c r="Z57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA57" t="n">
         <v>6.5</v>
@@ -7424,10 +7426,10 @@
         <v>51</v>
       </c>
       <c r="AD57" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE57" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF57" t="n">
         <v>10</v>
@@ -7477,31 +7479,31 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H58" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I58" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J58" t="n">
         <v>1.03</v>
       </c>
       <c r="K58" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L58" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M58" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N58" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O58" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P58" t="n">
         <v>1.3</v>
@@ -7516,7 +7518,7 @@
         <v>2</v>
       </c>
       <c r="T58" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U58" t="n">
         <v>8</v>
@@ -7528,19 +7530,19 @@
         <v>11</v>
       </c>
       <c r="X58" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y58" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z58" t="n">
         <v>15</v>
       </c>
       <c r="AA58" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB58" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC58" t="n">
         <v>51</v>
@@ -7549,7 +7551,7 @@
         <v>201</v>
       </c>
       <c r="AE58" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF58" t="n">
         <v>34</v>
@@ -7602,46 +7604,46 @@
         <v>2</v>
       </c>
       <c r="H59" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I59" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J59" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K59" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="L59" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M59" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N59" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O59" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="P59" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R59" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S59" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="T59" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U59" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V59" t="n">
         <v>9</v>
@@ -7650,28 +7652,28 @@
         <v>17</v>
       </c>
       <c r="X59" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB59" t="n">
         <v>17</v>
       </c>
-      <c r="Y59" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>15</v>
-      </c>
       <c r="AC59" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD59" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AE59" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF59" t="n">
         <v>19</v>
@@ -7721,13 +7723,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H60" t="n">
         <v>3.7</v>
       </c>
       <c r="I60" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J60" t="n">
         <v>1.03</v>
@@ -7748,10 +7750,10 @@
         <v>2.2</v>
       </c>
       <c r="P60" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q60" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R60" t="n">
         <v>1.62</v>
@@ -7763,7 +7765,7 @@
         <v>9</v>
       </c>
       <c r="U60" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V60" t="n">
         <v>8.5</v>
@@ -7799,7 +7801,7 @@
         <v>23</v>
       </c>
       <c r="AG60" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH60" t="n">
         <v>41</v>
@@ -7843,13 +7845,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H61" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I61" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="J61" t="n">
         <v>1.05</v>
@@ -7864,10 +7866,10 @@
         <v>3.5</v>
       </c>
       <c r="N61" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O61" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P61" t="n">
         <v>1.4</v>
@@ -7876,10 +7878,10 @@
         <v>2.75</v>
       </c>
       <c r="R61" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S61" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T61" t="n">
         <v>13</v>
@@ -7900,10 +7902,10 @@
         <v>41</v>
       </c>
       <c r="Z61" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA61" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB61" t="n">
         <v>19</v>
@@ -8019,7 +8021,7 @@
         <v>21</v>
       </c>
       <c r="Y62" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z62" t="n">
         <v>9</v>
@@ -8040,7 +8042,7 @@
         <v>8.5</v>
       </c>
       <c r="AF62" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG62" t="n">
         <v>11</v>
@@ -8099,7 +8101,7 @@
         <v>1.07</v>
       </c>
       <c r="K63" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L63" t="n">
         <v>1.36</v>
@@ -8209,13 +8211,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H64" t="n">
         <v>3.2</v>
       </c>
       <c r="I64" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
         <v>1.06</v>
@@ -8230,10 +8232,10 @@
         <v>3.25</v>
       </c>
       <c r="N64" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O64" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P64" t="n">
         <v>1.44</v>
@@ -8248,13 +8250,13 @@
         <v>1.91</v>
       </c>
       <c r="T64" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U64" t="n">
         <v>10</v>
       </c>
       <c r="V64" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W64" t="n">
         <v>21</v>
@@ -8293,7 +8295,7 @@
         <v>34</v>
       </c>
       <c r="AI64" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ64" t="n">
         <v>34</v>
@@ -8453,13 +8455,13 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H66" t="n">
         <v>3</v>
       </c>
       <c r="I66" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J66" t="n">
         <v>1.11</v>
@@ -8468,10 +8470,10 @@
         <v>6.5</v>
       </c>
       <c r="L66" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="M66" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N66" t="n">
         <v>2.88</v>
@@ -8492,7 +8494,7 @@
         <v>1.53</v>
       </c>
       <c r="T66" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U66" t="n">
         <v>8.5</v>
@@ -8501,7 +8503,7 @@
         <v>10</v>
       </c>
       <c r="W66" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X66" t="n">
         <v>23</v>
@@ -8528,10 +8530,10 @@
         <v>7</v>
       </c>
       <c r="AF66" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG66" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH66" t="n">
         <v>41</v>
@@ -8575,13 +8577,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H67" t="n">
         <v>3.75</v>
       </c>
       <c r="I67" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J67" t="n">
         <v>1.03</v>
@@ -8590,16 +8592,16 @@
         <v>15</v>
       </c>
       <c r="L67" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M67" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N67" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O67" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P67" t="n">
         <v>1.3</v>
@@ -8730,10 +8732,10 @@
         <v>2.5</v>
       </c>
       <c r="R68" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S68" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T68" t="n">
         <v>7.5</v>
@@ -8819,7 +8821,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H69" t="n">
         <v>3.2</v>
@@ -8828,10 +8830,10 @@
         <v>3.75</v>
       </c>
       <c r="J69" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K69" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L69" t="n">
         <v>1.36</v>
@@ -8852,10 +8854,10 @@
         <v>2.5</v>
       </c>
       <c r="R69" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S69" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T69" t="n">
         <v>6.5</v>
@@ -8941,22 +8943,22 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H70" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="I70" t="n">
         <v>2.35</v>
       </c>
       <c r="J70" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K70" t="n">
         <v>8</v>
       </c>
       <c r="L70" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M70" t="n">
         <v>2.75</v>
@@ -8986,7 +8988,7 @@
         <v>15</v>
       </c>
       <c r="V70" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W70" t="n">
         <v>34</v>
@@ -9016,13 +9018,13 @@
         <v>7</v>
       </c>
       <c r="AF70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG70" t="n">
         <v>10</v>
       </c>
       <c r="AH70" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI70" t="n">
         <v>21</v>
@@ -9063,7 +9065,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H71" t="n">
         <v>3</v>
@@ -9072,16 +9074,16 @@
         <v>3.2</v>
       </c>
       <c r="J71" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="K71" t="n">
         <v>6.5</v>
       </c>
       <c r="L71" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M71" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N71" t="n">
         <v>2.4</v>
@@ -9185,7 +9187,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H72" t="n">
         <v>3.25</v>
@@ -9194,13 +9196,13 @@
         <v>3.1</v>
       </c>
       <c r="J72" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K72" t="n">
         <v>13</v>
       </c>
       <c r="L72" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
@@ -9307,13 +9309,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H73" t="n">
         <v>3.6</v>
       </c>
       <c r="I73" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J73" t="n">
         <v>1.05</v>
@@ -9328,10 +9330,10 @@
         <v>3.75</v>
       </c>
       <c r="N73" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="O73" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="P73" t="n">
         <v>1.36</v>
@@ -9346,10 +9348,10 @@
         <v>2</v>
       </c>
       <c r="T73" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U73" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V73" t="n">
         <v>8.5</v>
@@ -9358,7 +9360,7 @@
         <v>15</v>
       </c>
       <c r="X73" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y73" t="n">
         <v>23</v>
@@ -9373,7 +9375,7 @@
         <v>15</v>
       </c>
       <c r="AC73" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD73" t="n">
         <v>201</v>
@@ -9388,7 +9390,7 @@
         <v>15</v>
       </c>
       <c r="AH73" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI73" t="n">
         <v>34</v>
@@ -9450,7 +9452,7 @@
         <v>4</v>
       </c>
       <c r="N74" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="O74" t="n">
         <v>2</v>
@@ -9572,10 +9574,10 @@
         <v>4</v>
       </c>
       <c r="N75" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="O75" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="P75" t="n">
         <v>1.33</v>
@@ -9679,16 +9681,16 @@
         <v>3</v>
       </c>
       <c r="I76" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J76" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K76" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L76" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M76" t="n">
         <v>2.75</v>
@@ -9700,10 +9702,10 @@
         <v>1.57</v>
       </c>
       <c r="P76" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R76" t="n">
         <v>1.95</v>
@@ -9748,16 +9750,16 @@
         <v>9</v>
       </c>
       <c r="AF76" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG76" t="n">
         <v>13</v>
       </c>
       <c r="AH76" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI76" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ76" t="n">
         <v>41</v>
@@ -9795,49 +9797,49 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H77" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I77" t="n">
         <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K77" t="n">
+        <v>9</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T77" t="n">
+        <v>8</v>
+      </c>
+      <c r="U77" t="n">
         <v>11</v>
-      </c>
-      <c r="L77" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M77" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N77" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="O77" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P77" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R77" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S77" t="n">
-        <v>2</v>
-      </c>
-      <c r="T77" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="U77" t="n">
-        <v>12</v>
       </c>
       <c r="V77" t="n">
         <v>9.5</v>
@@ -9846,28 +9848,28 @@
         <v>23</v>
       </c>
       <c r="X77" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y77" t="n">
         <v>29</v>
       </c>
       <c r="Z77" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA77" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB77" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC77" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD77" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE77" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF77" t="n">
         <v>15</v>
@@ -10066,7 +10068,7 @@
         <v>1.55</v>
       </c>
       <c r="P79" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q79" t="n">
         <v>2.32</v>
@@ -10283,7 +10285,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="H81" t="n">
         <v>3.4</v>
@@ -10295,34 +10297,34 @@
         <v>1.07</v>
       </c>
       <c r="K81" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="L81" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M81" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N81" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O81" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P81" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="R81" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S81" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T81" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="U81" t="n">
         <v>23</v>
@@ -10337,40 +10339,40 @@
         <v>45</v>
       </c>
       <c r="Y81" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z81" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AA81" t="n">
         <v>6.7</v>
       </c>
       <c r="AB81" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC81" t="n">
         <v>90</v>
       </c>
       <c r="AD81" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE81" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AF81" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AG81" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH81" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI81" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AJ81" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82">
@@ -10423,19 +10425,19 @@
         <v>1.4</v>
       </c>
       <c r="M82" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="N82" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="O82" t="n">
         <v>1.62</v>
       </c>
       <c r="P82" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="R82" t="n">
         <v>1.98</v>
@@ -10444,13 +10446,13 @@
         <v>1.75</v>
       </c>
       <c r="T82" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="U82" t="n">
         <v>17.5</v>
       </c>
       <c r="V82" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="W82" t="n">
         <v>50</v>
@@ -10474,7 +10476,7 @@
         <v>100</v>
       </c>
       <c r="AD82" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE82" t="n">
         <v>6.2</v>
@@ -10483,13 +10485,13 @@
         <v>8.5</v>
       </c>
       <c r="AG82" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH82" t="n">
         <v>17</v>
       </c>
       <c r="AI82" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AJ82" t="n">
         <v>35</v>
@@ -10899,7 +10901,7 @@
         <v>3.6</v>
       </c>
       <c r="I86" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J86" t="n">
         <v>1.07</v>
@@ -10953,7 +10955,7 @@
         <v>6.8</v>
       </c>
       <c r="AA86" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AB86" t="n">
         <v>19.5</v>
@@ -11027,16 +11029,16 @@
         <v>1.08</v>
       </c>
       <c r="K87" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="L87" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M87" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="N87" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="O87" t="n">
         <v>1.7</v>
@@ -11048,31 +11050,31 @@
         <v>2.5</v>
       </c>
       <c r="R87" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S87" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="T87" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="U87" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V87" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W87" t="n">
         <v>18.5</v>
       </c>
       <c r="X87" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y87" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z87" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AA87" t="n">
         <v>6.2</v>
@@ -11087,10 +11089,10 @@
         <v>600</v>
       </c>
       <c r="AE87" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF87" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG87" t="n">
         <v>12</v>
@@ -11099,10 +11101,10 @@
         <v>50</v>
       </c>
       <c r="AI87" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ87" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88">
@@ -11259,13 +11261,13 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H89" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I89" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="J89" t="n">
         <v>1.03</v>
@@ -11280,16 +11282,16 @@
         <v>4.5</v>
       </c>
       <c r="N89" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O89" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P89" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q89" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R89" t="n">
         <v>1.53</v>
@@ -11301,34 +11303,34 @@
         <v>12</v>
       </c>
       <c r="U89" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V89" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W89" t="n">
         <v>29</v>
       </c>
       <c r="X89" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y89" t="n">
         <v>23</v>
       </c>
       <c r="Z89" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA89" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB89" t="n">
         <v>12</v>
       </c>
       <c r="AC89" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD89" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE89" t="n">
         <v>11</v>
@@ -11346,7 +11348,7 @@
         <v>17</v>
       </c>
       <c r="AJ89" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
@@ -11384,16 +11386,16 @@
         <v>1.7</v>
       </c>
       <c r="H90" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I90" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J90" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K90" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L90" t="n">
         <v>1.29</v>
@@ -11402,10 +11404,10 @@
         <v>3.5</v>
       </c>
       <c r="N90" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O90" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P90" t="n">
         <v>1.4</v>
@@ -11414,10 +11416,10 @@
         <v>2.75</v>
       </c>
       <c r="R90" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S90" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T90" t="n">
         <v>7</v>
@@ -11441,7 +11443,7 @@
         <v>11</v>
       </c>
       <c r="AA90" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB90" t="n">
         <v>17</v>
@@ -11450,10 +11452,10 @@
         <v>51</v>
       </c>
       <c r="AD90" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE90" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF90" t="n">
         <v>23</v>
@@ -11465,7 +11467,7 @@
         <v>51</v>
       </c>
       <c r="AI90" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ90" t="n">
         <v>41</v>
@@ -11753,7 +11755,7 @@
         <v>3.4</v>
       </c>
       <c r="I93" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J93" t="n">
         <v>1.06</v>
@@ -11762,16 +11764,16 @@
         <v>10</v>
       </c>
       <c r="L93" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M93" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N93" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="O93" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="P93" t="n">
         <v>1.44</v>
@@ -11804,7 +11806,7 @@
         <v>29</v>
       </c>
       <c r="Z93" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA93" t="n">
         <v>6.5</v>
@@ -11908,7 +11910,7 @@
         <v>2.38</v>
       </c>
       <c r="T94" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U94" t="n">
         <v>17</v>
@@ -11935,13 +11937,13 @@
         <v>12</v>
       </c>
       <c r="AC94" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD94" t="n">
         <v>126</v>
       </c>
       <c r="AE94" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF94" t="n">
         <v>13</v>
@@ -11991,13 +11993,13 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H95" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I95" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J95" t="n">
         <v>1.03</v>
@@ -12006,16 +12008,16 @@
         <v>15</v>
       </c>
       <c r="L95" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M95" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N95" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O95" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P95" t="n">
         <v>1.3</v>
@@ -12030,7 +12032,7 @@
         <v>2.38</v>
       </c>
       <c r="T95" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U95" t="n">
         <v>19</v>
@@ -12060,10 +12062,10 @@
         <v>34</v>
       </c>
       <c r="AD95" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE95" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF95" t="n">
         <v>12</v>
@@ -12113,10 +12115,10 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H96" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I96" t="n">
         <v>11</v>
@@ -12128,10 +12130,10 @@
         <v>17</v>
       </c>
       <c r="L96" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M96" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N96" t="n">
         <v>1.53</v>
@@ -12140,25 +12142,25 @@
         <v>2.4</v>
       </c>
       <c r="P96" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q96" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R96" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S96" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T96" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U96" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V96" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W96" t="n">
         <v>8</v>
@@ -12179,13 +12181,13 @@
         <v>21</v>
       </c>
       <c r="AC96" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD96" t="n">
         <v>301</v>
       </c>
       <c r="AE96" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF96" t="n">
         <v>51</v>
@@ -12238,16 +12240,16 @@
         <v>1.73</v>
       </c>
       <c r="H97" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I97" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J97" t="n">
         <v>1.03</v>
       </c>
       <c r="K97" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L97" t="n">
         <v>1.17</v>
@@ -12286,22 +12288,22 @@
         <v>15</v>
       </c>
       <c r="X97" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y97" t="n">
         <v>21</v>
       </c>
       <c r="Z97" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA97" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB97" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC97" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD97" t="n">
         <v>126</v>
@@ -12316,10 +12318,10 @@
         <v>15</v>
       </c>
       <c r="AH97" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI97" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ97" t="n">
         <v>34</v>
@@ -12601,13 +12603,13 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H100" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I100" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J100" t="n">
         <v>1.03</v>
@@ -12649,7 +12651,7 @@
         <v>9.5</v>
       </c>
       <c r="W100" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X100" t="n">
         <v>17</v>
@@ -12667,13 +12669,13 @@
         <v>12</v>
       </c>
       <c r="AC100" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD100" t="n">
         <v>126</v>
       </c>
       <c r="AE100" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF100" t="n">
         <v>17</v>
@@ -12688,7 +12690,7 @@
         <v>21</v>
       </c>
       <c r="AJ100" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101">
@@ -12726,28 +12728,28 @@
         <v>2.3</v>
       </c>
       <c r="H101" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I101" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J101" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K101" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L101" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M101" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N101" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="O101" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="P101" t="n">
         <v>1.36</v>
@@ -12756,13 +12758,13 @@
         <v>3</v>
       </c>
       <c r="R101" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S101" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T101" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U101" t="n">
         <v>12</v>
@@ -12774,16 +12776,16 @@
         <v>23</v>
       </c>
       <c r="X101" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y101" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z101" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA101" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB101" t="n">
         <v>13</v>
@@ -12810,7 +12812,7 @@
         <v>21</v>
       </c>
       <c r="AJ101" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102">
@@ -12967,79 +12969,79 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H103" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I103" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J103" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K103" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L103" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="M103" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N103" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O103" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="P103" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q103" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R103" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S103" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T103" t="n">
+        <v>7</v>
+      </c>
+      <c r="U103" t="n">
         <v>8</v>
-      </c>
-      <c r="U103" t="n">
-        <v>9</v>
       </c>
       <c r="V103" t="n">
         <v>8.5</v>
       </c>
       <c r="W103" t="n">
+        <v>13</v>
+      </c>
+      <c r="X103" t="n">
         <v>15</v>
       </c>
-      <c r="X103" t="n">
-        <v>13</v>
-      </c>
       <c r="Y103" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z103" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA103" t="n">
         <v>7</v>
       </c>
       <c r="AB103" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC103" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD103" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AE103" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF103" t="n">
         <v>23</v>
@@ -13048,13 +13050,13 @@
         <v>15</v>
       </c>
       <c r="AH103" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI103" t="n">
         <v>41</v>
       </c>
-      <c r="AI103" t="n">
-        <v>34</v>
-      </c>
       <c r="AJ103" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104">
@@ -13089,19 +13091,19 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H104" t="n">
         <v>3.1</v>
       </c>
       <c r="I104" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J104" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K104" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L104" t="n">
         <v>1.5</v>
@@ -13131,7 +13133,7 @@
         <v>6</v>
       </c>
       <c r="U104" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V104" t="n">
         <v>10</v>
@@ -13211,13 +13213,13 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H105" t="n">
         <v>3.25</v>
       </c>
       <c r="I105" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J105" t="n">
         <v>1.08</v>
@@ -13253,7 +13255,7 @@
         <v>6.5</v>
       </c>
       <c r="U105" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V105" t="n">
         <v>9</v>
@@ -13283,7 +13285,7 @@
         <v>351</v>
       </c>
       <c r="AE105" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF105" t="n">
         <v>19</v>
@@ -13339,7 +13341,7 @@
         <v>3.4</v>
       </c>
       <c r="I106" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J106" t="n">
         <v>1.05</v>
@@ -13348,16 +13350,16 @@
         <v>11</v>
       </c>
       <c r="L106" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M106" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N106" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="O106" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="P106" t="n">
         <v>1.4</v>
@@ -13372,7 +13374,7 @@
         <v>2</v>
       </c>
       <c r="T106" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U106" t="n">
         <v>15</v>
@@ -13390,16 +13392,16 @@
         <v>29</v>
       </c>
       <c r="Z106" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA106" t="n">
         <v>6.5</v>
       </c>
       <c r="AB106" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC106" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD106" t="n">
         <v>201</v>
@@ -13420,7 +13422,7 @@
         <v>19</v>
       </c>
       <c r="AJ106" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107">
@@ -13455,25 +13457,25 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="H107" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I107" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="J107" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K107" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L107" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M107" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N107" t="n">
         <v>1.7</v>
@@ -13488,28 +13490,28 @@
         <v>3.25</v>
       </c>
       <c r="R107" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S107" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T107" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U107" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V107" t="n">
         <v>8.5</v>
       </c>
       <c r="W107" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X107" t="n">
         <v>13</v>
       </c>
       <c r="Y107" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z107" t="n">
         <v>13</v>
@@ -13524,13 +13526,13 @@
         <v>41</v>
       </c>
       <c r="AD107" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE107" t="n">
         <v>15</v>
       </c>
       <c r="AF107" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG107" t="n">
         <v>15</v>
@@ -13539,10 +13541,10 @@
         <v>51</v>
       </c>
       <c r="AI107" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ107" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108">
@@ -13616,22 +13618,22 @@
         <v>2.2</v>
       </c>
       <c r="T108" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U108" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V108" t="n">
         <v>8.5</v>
       </c>
       <c r="W108" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X108" t="n">
         <v>11</v>
       </c>
       <c r="Y108" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z108" t="n">
         <v>19</v>
@@ -13655,7 +13657,7 @@
         <v>34</v>
       </c>
       <c r="AG108" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH108" t="n">
         <v>67</v>
@@ -13705,25 +13707,25 @@
         <v>4.5</v>
       </c>
       <c r="I109" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J109" t="n">
         <v>1.03</v>
       </c>
       <c r="K109" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L109" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M109" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N109" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O109" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P109" t="n">
         <v>1.29</v>
@@ -13732,16 +13734,16 @@
         <v>3.5</v>
       </c>
       <c r="R109" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S109" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T109" t="n">
         <v>8.5</v>
       </c>
       <c r="U109" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V109" t="n">
         <v>8.5</v>
@@ -13756,10 +13758,10 @@
         <v>21</v>
       </c>
       <c r="Z109" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA109" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB109" t="n">
         <v>17</v>
@@ -13768,19 +13770,19 @@
         <v>41</v>
       </c>
       <c r="AD109" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE109" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF109" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG109" t="n">
         <v>17</v>
       </c>
       <c r="AH109" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI109" t="n">
         <v>41</v>
@@ -13821,19 +13823,19 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H110" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I110" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J110" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K110" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L110" t="n">
         <v>1.33</v>
@@ -13854,13 +13856,13 @@
         <v>2.63</v>
       </c>
       <c r="R110" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S110" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T110" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U110" t="n">
         <v>8.5</v>
@@ -13869,7 +13871,7 @@
         <v>9</v>
       </c>
       <c r="W110" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X110" t="n">
         <v>17</v>
@@ -13890,7 +13892,7 @@
         <v>51</v>
       </c>
       <c r="AD110" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE110" t="n">
         <v>10</v>
@@ -14199,7 +14201,7 @@
         <v>1.06</v>
       </c>
       <c r="K113" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L113" t="n">
         <v>1.33</v>
@@ -14214,10 +14216,10 @@
         <v>1.75</v>
       </c>
       <c r="P113" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="Q113" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="R113" t="n">
         <v>2.2</v>
@@ -14250,7 +14252,7 @@
         <v>8</v>
       </c>
       <c r="AB113" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC113" t="n">
         <v>81</v>
@@ -14259,7 +14261,7 @@
         <v>301</v>
       </c>
       <c r="AE113" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF113" t="n">
         <v>29</v>
@@ -14309,13 +14311,13 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H114" t="n">
         <v>3.3</v>
       </c>
       <c r="I114" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J114" t="n">
         <v>1.08</v>
@@ -14324,22 +14326,22 @@
         <v>8</v>
       </c>
       <c r="L114" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M114" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N114" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="O114" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P114" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q114" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R114" t="n">
         <v>2.2</v>
@@ -14351,7 +14353,7 @@
         <v>5.5</v>
       </c>
       <c r="U114" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V114" t="n">
         <v>9</v>
@@ -14366,7 +14368,7 @@
         <v>34</v>
       </c>
       <c r="Z114" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA114" t="n">
         <v>6.5</v>
@@ -14375,7 +14377,7 @@
         <v>21</v>
       </c>
       <c r="AC114" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD114" t="inlineStr"/>
       <c r="AE114" t="n">
@@ -14429,19 +14431,19 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H115" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I115" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J115" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K115" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L115" t="n">
         <v>1.36</v>
@@ -14456,10 +14458,10 @@
         <v>1.67</v>
       </c>
       <c r="P115" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q115" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R115" t="n">
         <v>1.91</v>
@@ -14468,10 +14470,10 @@
         <v>1.8</v>
       </c>
       <c r="T115" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U115" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V115" t="n">
         <v>13</v>
@@ -14486,7 +14488,7 @@
         <v>41</v>
       </c>
       <c r="Z115" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA115" t="n">
         <v>6</v>
@@ -14504,19 +14506,19 @@
         <v>6.5</v>
       </c>
       <c r="AF115" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG115" t="n">
         <v>9</v>
       </c>
       <c r="AH115" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI115" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ115" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116">
@@ -14551,7 +14553,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H116" t="n">
         <v>5.25</v>
@@ -14578,10 +14580,10 @@
         <v>3.4</v>
       </c>
       <c r="P116" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="Q116" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="R116" t="n">
         <v>1.44</v>
@@ -14596,10 +14598,10 @@
         <v>11</v>
       </c>
       <c r="V116" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W116" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X116" t="n">
         <v>11</v>
@@ -14635,7 +14637,7 @@
         <v>51</v>
       </c>
       <c r="AI116" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ116" t="n">
         <v>29</v>
@@ -14795,94 +14797,94 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="H118" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I118" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="J118" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K118" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="L118" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M118" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="N118" t="n">
         <v>1.57</v>
       </c>
       <c r="O118" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="P118" t="n">
         <v>1.31</v>
       </c>
       <c r="Q118" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="R118" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="S118" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="T118" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="U118" t="n">
+        <v>28</v>
+      </c>
+      <c r="V118" t="n">
+        <v>14</v>
+      </c>
+      <c r="W118" t="n">
+        <v>70</v>
+      </c>
+      <c r="X118" t="n">
         <v>35</v>
       </c>
-      <c r="V118" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="W118" t="n">
-        <v>100</v>
-      </c>
-      <c r="X118" t="n">
+      <c r="Y118" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC118" t="n">
         <v>45</v>
       </c>
-      <c r="Y118" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z118" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AA118" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AB118" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC118" t="n">
-        <v>55</v>
-      </c>
       <c r="AD118" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AE118" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF118" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AG118" t="n">
         <v>8</v>
       </c>
       <c r="AH118" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI118" t="n">
         <v>12</v>
       </c>
-      <c r="AI118" t="n">
-        <v>11.25</v>
-      </c>
       <c r="AJ118" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="119">
@@ -14956,7 +14958,7 @@
         <v>1.91</v>
       </c>
       <c r="T119" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="U119" t="n">
         <v>21</v>
@@ -15039,52 +15041,52 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H120" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I120" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K120" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M120" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N120" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P120" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R120" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S120" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T120" t="n">
         <v>5</v>
-      </c>
-      <c r="J120" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K120" t="n">
-        <v>7</v>
-      </c>
-      <c r="L120" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M120" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="N120" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O120" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P120" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q120" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R120" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S120" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T120" t="n">
-        <v>5.5</v>
       </c>
       <c r="U120" t="n">
         <v>7</v>
       </c>
       <c r="V120" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W120" t="n">
         <v>13</v>
@@ -15096,10 +15098,10 @@
         <v>41</v>
       </c>
       <c r="Z120" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA120" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB120" t="n">
         <v>21</v>
@@ -15111,19 +15113,19 @@
         <v>101</v>
       </c>
       <c r="AE120" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF120" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG120" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH120" t="n">
         <v>51</v>
       </c>
       <c r="AI120" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ120" t="n">
         <v>51</v>
@@ -15161,19 +15163,19 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H121" t="n">
         <v>3.3</v>
       </c>
       <c r="I121" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J121" t="n">
         <v>1.07</v>
       </c>
       <c r="K121" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L121" t="n">
         <v>1.36</v>
@@ -15203,7 +15205,7 @@
         <v>6.5</v>
       </c>
       <c r="U121" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V121" t="n">
         <v>9</v>
@@ -15283,7 +15285,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H122" t="n">
         <v>5.5</v>
@@ -15292,13 +15294,13 @@
         <v>6.5</v>
       </c>
       <c r="J122" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K122" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L122" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="M122" t="n">
         <v>6.5</v>
@@ -15361,10 +15363,10 @@
         <v>41</v>
       </c>
       <c r="AG122" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH122" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI122" t="n">
         <v>41</v>
@@ -15414,22 +15416,22 @@
         <v>2.8</v>
       </c>
       <c r="J123" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K123" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L123" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M123" t="n">
         <v>3.75</v>
       </c>
       <c r="N123" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="O123" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="P123" t="n">
         <v>1.36</v>
@@ -15536,13 +15538,13 @@
         <v>3.75</v>
       </c>
       <c r="J124" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K124" t="n">
         <v>17</v>
       </c>
       <c r="L124" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M124" t="n">
         <v>5</v>
@@ -15655,25 +15657,25 @@
         <v>3.8</v>
       </c>
       <c r="I125" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J125" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K125" t="n">
         <v>15</v>
       </c>
       <c r="L125" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="M125" t="n">
         <v>4.5</v>
       </c>
       <c r="N125" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O125" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P125" t="n">
         <v>1.3</v>
@@ -15733,7 +15735,7 @@
         <v>41</v>
       </c>
       <c r="AI125" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ125" t="n">
         <v>34</v>
@@ -15771,31 +15773,31 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H126" t="n">
         <v>4</v>
       </c>
       <c r="I126" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J126" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K126" t="n">
         <v>17</v>
       </c>
       <c r="L126" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M126" t="n">
         <v>5</v>
       </c>
       <c r="N126" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O126" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P126" t="n">
         <v>1.29</v>
@@ -15804,10 +15806,10 @@
         <v>3.5</v>
       </c>
       <c r="R126" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S126" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T126" t="n">
         <v>10</v>
@@ -15893,49 +15895,49 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H127" t="n">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="I127" t="n">
         <v>4.9</v>
       </c>
       <c r="J127" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K127" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L127" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="M127" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="N127" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="O127" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="P127" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="Q127" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="R127" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="S127" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="T127" t="n">
-        <v>8.25</v>
+        <v>7.3</v>
       </c>
       <c r="U127" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="V127" t="n">
         <v>8</v>
@@ -15944,31 +15946,31 @@
         <v>12</v>
       </c>
       <c r="X127" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="Y127" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z127" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA127" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB127" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC127" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD127" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AE127" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF127" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG127" t="n">
         <v>15.5</v>
@@ -16015,19 +16017,19 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H128" t="n">
         <v>3.1</v>
       </c>
       <c r="I128" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J128" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K128" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L128" t="n">
         <v>1.33</v>
@@ -16087,7 +16089,7 @@
         <v>251</v>
       </c>
       <c r="AE128" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF128" t="n">
         <v>13</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-21.xlsx
@@ -650,10 +650,10 @@
         <v>2.63</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
@@ -668,10 +668,10 @@
         <v>4.5</v>
       </c>
       <c r="N2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O2" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="P2" t="n">
         <v>1.3</v>
@@ -710,13 +710,13 @@
         <v>7.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="n">
         <v>41</v>
       </c>
       <c r="AD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -1379,79 +1379,79 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
         <v>4.1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M8" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N8" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U8" t="n">
         <v>8</v>
       </c>
       <c r="V8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X8" t="n">
         <v>19</v>
       </c>
       <c r="Y8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA8" t="n">
         <v>6.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="n">
         <v>501</v>
       </c>
       <c r="AE8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF8" t="n">
         <v>19</v>
@@ -1466,7 +1466,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -1504,7 +1504,7 @@
         <v>1.48</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
         <v>8.5</v>
@@ -1516,22 +1516,22 @@
         <v>9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O9" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P9" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R9" t="n">
         <v>2.38</v>
@@ -1567,7 +1567,7 @@
         <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD9" t="n">
         <v>101</v>
@@ -1745,37 +1745,37 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I11" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="J11" t="n">
         <v>1.17</v>
       </c>
       <c r="K11" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="M11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.03</v>
       </c>
       <c r="R11" t="n">
         <v>2.63</v>
@@ -1784,19 +1784,19 @@
         <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="U11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W11" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="X11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y11" t="n">
         <v>51</v>
@@ -1805,7 +1805,7 @@
         <v>4.75</v>
       </c>
       <c r="AA11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB11" t="n">
         <v>26</v>
@@ -1817,22 +1817,22 @@
         <v>101</v>
       </c>
       <c r="AE11" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>51</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -1894,10 +1894,10 @@
         <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R12" t="n">
         <v>2.5</v>
@@ -2001,7 +2001,7 @@
         <v>1.06</v>
       </c>
       <c r="K13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.33</v>
@@ -2010,10 +2010,10 @@
         <v>3.4</v>
       </c>
       <c r="N13" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="O13" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="P13" t="n">
         <v>1.4</v>
@@ -2114,34 +2114,34 @@
         <v>2.38</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J14" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M14" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N14" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R14" t="n">
         <v>2.2</v>
@@ -2156,7 +2156,7 @@
         <v>10</v>
       </c>
       <c r="V14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W14" t="n">
         <v>23</v>
@@ -2174,7 +2174,7 @@
         <v>6</v>
       </c>
       <c r="AB14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC14" t="n">
         <v>81</v>
@@ -2233,19 +2233,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J15" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L15" t="n">
         <v>1.44</v>
@@ -2275,10 +2275,10 @@
         <v>5.5</v>
       </c>
       <c r="U15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W15" t="n">
         <v>15</v>
@@ -2287,10 +2287,10 @@
         <v>19</v>
       </c>
       <c r="Y15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA15" t="n">
         <v>6.5</v>
@@ -2305,10 +2305,10 @@
         <v>351</v>
       </c>
       <c r="AE15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG15" t="n">
         <v>15</v>
@@ -2355,43 +2355,43 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H16" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I16" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J16" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O16" t="n">
         <v>1.44</v>
       </c>
-      <c r="M16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.5</v>
-      </c>
       <c r="P16" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S16" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T16" t="n">
         <v>6.5</v>
@@ -2403,16 +2403,16 @@
         <v>11</v>
       </c>
       <c r="W16" t="n">
+        <v>23</v>
+      </c>
+      <c r="X16" t="n">
         <v>26</v>
-      </c>
-      <c r="X16" t="n">
-        <v>23</v>
       </c>
       <c r="Y16" t="n">
         <v>41</v>
       </c>
       <c r="Z16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA16" t="n">
         <v>5.5</v>
@@ -2430,16 +2430,16 @@
         <v>7.5</v>
       </c>
       <c r="AF16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG16" t="n">
         <v>13</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>12</v>
       </c>
       <c r="AH16" t="n">
         <v>34</v>
       </c>
       <c r="AI16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ16" t="n">
         <v>41</v>
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H20" t="n">
         <v>4.75</v>
@@ -2858,16 +2858,16 @@
         <v>15</v>
       </c>
       <c r="L20" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N20" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O20" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="P20" t="n">
         <v>1.33</v>
@@ -2897,13 +2897,13 @@
         <v>12</v>
       </c>
       <c r="Y20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB20" t="n">
         <v>21</v>
@@ -2974,22 +2974,22 @@
         <v>2.8</v>
       </c>
       <c r="J21" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M21" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N21" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
         <v>1.57</v>
@@ -3090,28 +3090,28 @@
         <v>2.1</v>
       </c>
       <c r="H22" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="K22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N22" t="n">
         <v>2.88</v>
       </c>
-      <c r="I22" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="K22" t="n">
-        <v>5</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.1</v>
-      </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
         <v>1.67</v>
@@ -3120,10 +3120,10 @@
         <v>2.1</v>
       </c>
       <c r="R22" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S22" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T22" t="n">
         <v>5</v>
@@ -3132,7 +3132,7 @@
         <v>8</v>
       </c>
       <c r="V22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W22" t="n">
         <v>19</v>
@@ -3144,13 +3144,13 @@
         <v>41</v>
       </c>
       <c r="Z22" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AA22" t="n">
         <v>6</v>
       </c>
       <c r="AB22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC22" t="n">
         <v>101</v>
@@ -3168,7 +3168,7 @@
         <v>17</v>
       </c>
       <c r="AH22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI22" t="n">
         <v>41</v>
@@ -3459,7 +3459,7 @@
         <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J25" t="n">
         <v>1.1</v>
@@ -3492,10 +3492,10 @@
         <v>1.67</v>
       </c>
       <c r="T25" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V25" t="n">
         <v>9</v>
@@ -3528,7 +3528,7 @@
         <v>10</v>
       </c>
       <c r="AF25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG25" t="n">
         <v>17</v>
@@ -3575,25 +3575,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H26" t="n">
         <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J26" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L26" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N26" t="n">
         <v>2.2</v>
@@ -3623,7 +3623,7 @@
         <v>9</v>
       </c>
       <c r="W26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X26" t="n">
         <v>17</v>
@@ -3632,7 +3632,7 @@
         <v>29</v>
       </c>
       <c r="Z26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA26" t="n">
         <v>6.5</v>
@@ -3644,13 +3644,13 @@
         <v>51</v>
       </c>
       <c r="AD26" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE26" t="n">
         <v>10</v>
       </c>
       <c r="AF26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG26" t="n">
         <v>15</v>
@@ -3659,7 +3659,7 @@
         <v>41</v>
       </c>
       <c r="AI26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ26" t="n">
         <v>41</v>
@@ -3736,7 +3736,7 @@
         <v>1.62</v>
       </c>
       <c r="T27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U27" t="n">
         <v>6</v>
@@ -3748,7 +3748,7 @@
         <v>7.5</v>
       </c>
       <c r="X27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y27" t="n">
         <v>29</v>
@@ -3778,10 +3778,10 @@
         <v>29</v>
       </c>
       <c r="AH27" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AI27" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ27" t="n">
         <v>67</v>
@@ -3828,16 +3828,16 @@
         <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M28" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N28" t="n">
         <v>2.2</v>
@@ -3846,10 +3846,10 @@
         <v>1.67</v>
       </c>
       <c r="P28" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R28" t="n">
         <v>1.83</v>
@@ -3864,7 +3864,7 @@
         <v>11</v>
       </c>
       <c r="V28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W28" t="n">
         <v>23</v>
@@ -3888,7 +3888,7 @@
         <v>51</v>
       </c>
       <c r="AD28" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE28" t="n">
         <v>8.5</v>
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H30" t="n">
         <v>4</v>
@@ -4072,10 +4072,10 @@
         <v>1.62</v>
       </c>
       <c r="J30" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L30" t="n">
         <v>1.2</v>
@@ -4084,10 +4084,10 @@
         <v>4.5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O30" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P30" t="n">
         <v>1.3</v>
@@ -4108,22 +4108,22 @@
         <v>29</v>
       </c>
       <c r="V30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W30" t="n">
         <v>51</v>
       </c>
       <c r="X30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z30" t="n">
         <v>15</v>
       </c>
       <c r="AA30" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB30" t="n">
         <v>15</v>
@@ -4138,7 +4138,7 @@
         <v>8.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG30" t="n">
         <v>8.5</v>
@@ -4328,10 +4328,10 @@
         <v>3</v>
       </c>
       <c r="N32" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O32" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P32" t="n">
         <v>1.5</v>
@@ -4551,13 +4551,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H34" t="n">
         <v>3.5</v>
       </c>
       <c r="I34" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J34" t="n">
         <v>1.06</v>
@@ -4572,7 +4572,7 @@
         <v>3.4</v>
       </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O34" t="n">
         <v>1.8</v>
@@ -4608,7 +4608,7 @@
         <v>29</v>
       </c>
       <c r="Z34" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA34" t="n">
         <v>6.5</v>
@@ -4620,7 +4620,7 @@
         <v>51</v>
       </c>
       <c r="AD34" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE34" t="n">
         <v>11</v>
@@ -4676,10 +4676,10 @@
         <v>1.9</v>
       </c>
       <c r="H35" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I35" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="J35" t="n">
         <v>1.08</v>
@@ -4694,10 +4694,10 @@
         <v>2.75</v>
       </c>
       <c r="N35" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="O35" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P35" t="n">
         <v>1.5</v>
@@ -4706,10 +4706,10 @@
         <v>2.5</v>
       </c>
       <c r="R35" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S35" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T35" t="n">
         <v>6</v>
@@ -4730,10 +4730,10 @@
         <v>34</v>
       </c>
       <c r="Z35" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB35" t="n">
         <v>19</v>
@@ -4745,16 +4745,16 @@
         <v>501</v>
       </c>
       <c r="AE35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI35" t="n">
         <v>41</v>
@@ -4816,10 +4816,10 @@
         <v>2.75</v>
       </c>
       <c r="N36" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="O36" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P36" t="n">
         <v>1.5</v>
@@ -4929,13 +4929,13 @@
         <v>1.02</v>
       </c>
       <c r="K37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L37" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M37" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N37" t="n">
         <v>1.44</v>
@@ -5039,19 +5039,19 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H38" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I38" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J38" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L38" t="n">
         <v>1.29</v>
@@ -5060,10 +5060,10 @@
         <v>3.5</v>
       </c>
       <c r="N38" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O38" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P38" t="n">
         <v>1.4</v>
@@ -5072,10 +5072,10 @@
         <v>2.75</v>
       </c>
       <c r="R38" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S38" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T38" t="n">
         <v>9</v>
@@ -5096,7 +5096,7 @@
         <v>29</v>
       </c>
       <c r="Z38" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA38" t="n">
         <v>6</v>
@@ -5111,7 +5111,7 @@
         <v>201</v>
       </c>
       <c r="AE38" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF38" t="n">
         <v>13</v>
@@ -5161,13 +5161,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H39" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J39" t="n">
         <v>1.08</v>
@@ -5182,16 +5182,16 @@
         <v>2.75</v>
       </c>
       <c r="N39" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O39" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P39" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R39" t="n">
         <v>1.95</v>
@@ -5203,10 +5203,10 @@
         <v>7</v>
       </c>
       <c r="U39" t="n">
+        <v>12</v>
+      </c>
+      <c r="V39" t="n">
         <v>11</v>
-      </c>
-      <c r="V39" t="n">
-        <v>10</v>
       </c>
       <c r="W39" t="n">
         <v>26</v>
@@ -5215,7 +5215,7 @@
         <v>23</v>
       </c>
       <c r="Y39" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z39" t="n">
         <v>7.5</v>
@@ -5224,16 +5224,16 @@
         <v>6</v>
       </c>
       <c r="AB39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC39" t="n">
         <v>51</v>
       </c>
       <c r="AD39" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE39" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF39" t="n">
         <v>13</v>
@@ -5286,28 +5286,28 @@
         <v>3.9</v>
       </c>
       <c r="H40" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I40" t="n">
         <v>1.8</v>
       </c>
       <c r="J40" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K40" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L40" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M40" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N40" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="O40" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="P40" t="n">
         <v>1.4</v>
@@ -5316,13 +5316,13 @@
         <v>2.75</v>
       </c>
       <c r="R40" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S40" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U40" t="n">
         <v>21</v>
@@ -5340,7 +5340,7 @@
         <v>41</v>
       </c>
       <c r="Z40" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA40" t="n">
         <v>7.5</v>
@@ -5352,7 +5352,7 @@
         <v>51</v>
       </c>
       <c r="AD40" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE40" t="n">
         <v>7</v>
@@ -5370,7 +5370,7 @@
         <v>15</v>
       </c>
       <c r="AJ40" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
@@ -5548,10 +5548,10 @@
         <v>3.75</v>
       </c>
       <c r="N42" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O42" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P42" t="n">
         <v>1.36</v>
@@ -5649,64 +5649,64 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H43" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I43" t="n">
         <v>2.45</v>
       </c>
       <c r="J43" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K43" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L43" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M43" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N43" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O43" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="P43" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R43" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S43" t="n">
         <v>1.8</v>
       </c>
-      <c r="S43" t="n">
-        <v>1.95</v>
-      </c>
       <c r="T43" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V43" t="n">
         <v>11</v>
       </c>
       <c r="W43" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X43" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y43" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z43" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA43" t="n">
         <v>6</v>
@@ -5718,13 +5718,13 @@
         <v>51</v>
       </c>
       <c r="AD43" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AE43" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG43" t="n">
         <v>10</v>
@@ -5736,7 +5736,7 @@
         <v>21</v>
       </c>
       <c r="AJ43" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
@@ -5771,13 +5771,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H44" t="n">
         <v>3.5</v>
       </c>
       <c r="I44" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J44" t="n">
         <v>1.04</v>
@@ -5786,16 +5786,16 @@
         <v>13</v>
       </c>
       <c r="L44" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N44" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O44" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P44" t="n">
         <v>1.33</v>
@@ -5810,7 +5810,7 @@
         <v>2.2</v>
       </c>
       <c r="T44" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U44" t="n">
         <v>11</v>
@@ -5819,7 +5819,7 @@
         <v>9</v>
       </c>
       <c r="W44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X44" t="n">
         <v>15</v>
@@ -5834,7 +5834,7 @@
         <v>7</v>
       </c>
       <c r="AB44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC44" t="n">
         <v>41</v>
@@ -5893,19 +5893,19 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H45" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I45" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L45" t="n">
         <v>1.3</v>
@@ -5935,7 +5935,7 @@
         <v>6</v>
       </c>
       <c r="U45" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V45" t="n">
         <v>8.5</v>
@@ -6015,13 +6015,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H46" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I46" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J46" t="n">
         <v>1.05</v>
@@ -6042,10 +6042,10 @@
         <v>1.83</v>
       </c>
       <c r="P46" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R46" t="n">
         <v>1.95</v>
@@ -6057,7 +6057,7 @@
         <v>6.5</v>
       </c>
       <c r="U46" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V46" t="n">
         <v>8.5</v>
@@ -6087,7 +6087,7 @@
         <v>351</v>
       </c>
       <c r="AE46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF46" t="n">
         <v>23</v>
@@ -6137,13 +6137,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H47" t="n">
         <v>3.2</v>
       </c>
       <c r="I47" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
         <v>1.08</v>
@@ -6158,10 +6158,10 @@
         <v>2.75</v>
       </c>
       <c r="N47" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O47" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P47" t="n">
         <v>1.5</v>
@@ -6170,22 +6170,22 @@
         <v>2.5</v>
       </c>
       <c r="R47" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S47" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T47" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U47" t="n">
+        <v>11</v>
+      </c>
+      <c r="V47" t="n">
         <v>10</v>
       </c>
-      <c r="V47" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X47" t="n">
         <v>21</v>
@@ -6197,16 +6197,16 @@
         <v>8</v>
       </c>
       <c r="AA47" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB47" t="n">
         <v>17</v>
       </c>
       <c r="AC47" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD47" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE47" t="n">
         <v>8</v>
@@ -6221,7 +6221,7 @@
         <v>34</v>
       </c>
       <c r="AI47" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ47" t="n">
         <v>41</v>
@@ -6381,31 +6381,31 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="H49" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I49" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="J49" t="n">
         <v>1.04</v>
       </c>
       <c r="K49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L49" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N49" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O49" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P49" t="n">
         <v>1.36</v>
@@ -6423,7 +6423,7 @@
         <v>17</v>
       </c>
       <c r="U49" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="V49" t="n">
         <v>19</v>
@@ -6438,7 +6438,7 @@
         <v>41</v>
       </c>
       <c r="Z49" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA49" t="n">
         <v>7.5</v>
@@ -6465,7 +6465,7 @@
         <v>11</v>
       </c>
       <c r="AI49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ49" t="n">
         <v>26</v>
@@ -6503,79 +6503,79 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H50" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I50" t="n">
         <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K50" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L50" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M50" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N50" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="O50" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="P50" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R50" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="S50" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="T50" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V50" t="n">
         <v>9.5</v>
       </c>
       <c r="W50" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X50" t="n">
         <v>19</v>
       </c>
       <c r="Y50" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z50" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA50" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB50" t="n">
         <v>13</v>
       </c>
       <c r="AC50" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD50" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE50" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF50" t="n">
         <v>15</v>
@@ -6584,13 +6584,13 @@
         <v>11</v>
       </c>
       <c r="AH50" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI50" t="n">
         <v>23</v>
       </c>
       <c r="AJ50" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
@@ -6634,10 +6634,10 @@
         <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L51" t="n">
         <v>1.36</v>
@@ -6646,13 +6646,13 @@
         <v>3</v>
       </c>
       <c r="N51" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O51" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P51" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q51" t="n">
         <v>2.5</v>
@@ -6756,10 +6756,10 @@
         <v>2.63</v>
       </c>
       <c r="J52" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K52" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L52" t="n">
         <v>1.33</v>
@@ -6768,16 +6768,16 @@
         <v>3.25</v>
       </c>
       <c r="N52" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O52" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P52" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R52" t="n">
         <v>1.83</v>
@@ -6890,13 +6890,13 @@
         <v>3.5</v>
       </c>
       <c r="N53" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O53" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="P53" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q53" t="n">
         <v>2.75</v>
@@ -7012,16 +7012,16 @@
         <v>3.25</v>
       </c>
       <c r="N54" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O54" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P54" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R54" t="n">
         <v>1.91</v>
@@ -7113,37 +7113,37 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H55" t="n">
         <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J55" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K55" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L55" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M55" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N55" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O55" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P55" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="R55" t="n">
         <v>2.1</v>
@@ -7155,7 +7155,7 @@
         <v>8</v>
       </c>
       <c r="U55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V55" t="n">
         <v>13</v>
@@ -7170,7 +7170,7 @@
         <v>41</v>
       </c>
       <c r="Z55" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA55" t="n">
         <v>6</v>
@@ -7188,10 +7188,10 @@
         <v>6</v>
       </c>
       <c r="AF55" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG55" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH55" t="n">
         <v>21</v>
@@ -7250,19 +7250,19 @@
         <v>9</v>
       </c>
       <c r="L56" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M56" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N56" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O56" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P56" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q56" t="n">
         <v>2.5</v>
@@ -7369,7 +7369,7 @@
         <v>1.04</v>
       </c>
       <c r="K57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L57" t="n">
         <v>1.25</v>
@@ -7384,19 +7384,19 @@
         <v>2</v>
       </c>
       <c r="P57" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R57" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S57" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U57" t="n">
         <v>19</v>
@@ -7414,16 +7414,16 @@
         <v>34</v>
       </c>
       <c r="Z57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA57" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC57" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD57" t="n">
         <v>201</v>
@@ -7435,16 +7435,16 @@
         <v>10</v>
       </c>
       <c r="AG57" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI57" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ57" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58">
@@ -7479,46 +7479,46 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H58" t="n">
         <v>4.33</v>
       </c>
       <c r="I58" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J58" t="n">
         <v>1.03</v>
       </c>
       <c r="K58" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L58" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M58" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N58" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O58" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P58" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q58" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R58" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S58" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T58" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U58" t="n">
         <v>8</v>
@@ -7542,13 +7542,13 @@
         <v>8.5</v>
       </c>
       <c r="AB58" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC58" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD58" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE58" t="n">
         <v>19</v>
@@ -7723,13 +7723,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H60" t="n">
         <v>3.7</v>
       </c>
       <c r="I60" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J60" t="n">
         <v>1.03</v>
@@ -7765,7 +7765,7 @@
         <v>9</v>
       </c>
       <c r="U60" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V60" t="n">
         <v>8.5</v>
@@ -7845,13 +7845,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H61" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I61" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="J61" t="n">
         <v>1.05</v>
@@ -7866,10 +7866,10 @@
         <v>3.5</v>
       </c>
       <c r="N61" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O61" t="n">
         <v>1.9</v>
-      </c>
-      <c r="O61" t="n">
-        <v>1.95</v>
       </c>
       <c r="P61" t="n">
         <v>1.4</v>
@@ -7887,7 +7887,7 @@
         <v>13</v>
       </c>
       <c r="U61" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V61" t="n">
         <v>17</v>
@@ -7905,7 +7905,7 @@
         <v>11</v>
       </c>
       <c r="AA61" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB61" t="n">
         <v>19</v>
@@ -7920,13 +7920,13 @@
         <v>6.5</v>
       </c>
       <c r="AF61" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG61" t="n">
         <v>8.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI61" t="n">
         <v>13</v>
@@ -8089,31 +8089,31 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="H63" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I63" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J63" t="n">
         <v>1.07</v>
       </c>
       <c r="K63" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L63" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M63" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N63" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O63" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P63" t="n">
         <v>1.44</v>
@@ -8122,22 +8122,22 @@
         <v>2.63</v>
       </c>
       <c r="R63" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S63" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T63" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U63" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V63" t="n">
         <v>8.5</v>
       </c>
       <c r="W63" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X63" t="n">
         <v>15</v>
@@ -8149,10 +8149,10 @@
         <v>8.5</v>
       </c>
       <c r="AA63" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB63" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC63" t="n">
         <v>67</v>
@@ -8164,16 +8164,16 @@
         <v>12</v>
       </c>
       <c r="AF63" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG63" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH63" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI63" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ63" t="n">
         <v>51</v>
@@ -8220,22 +8220,22 @@
         <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K64" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L64" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M64" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N64" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O64" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P64" t="n">
         <v>1.44</v>
@@ -8464,34 +8464,34 @@
         <v>3.4</v>
       </c>
       <c r="J66" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K66" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L66" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S66" t="n">
         <v>1.57</v>
-      </c>
-      <c r="M66" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="N66" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O66" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P66" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R66" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S66" t="n">
-        <v>1.53</v>
       </c>
       <c r="T66" t="n">
         <v>5.5</v>
@@ -8518,19 +8518,19 @@
         <v>6.5</v>
       </c>
       <c r="AB66" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC66" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD66" t="n">
         <v>101</v>
       </c>
       <c r="AE66" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF66" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG66" t="n">
         <v>13</v>
@@ -8577,13 +8577,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H67" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I67" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J67" t="n">
         <v>1.03</v>
@@ -8592,16 +8592,16 @@
         <v>15</v>
       </c>
       <c r="L67" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M67" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N67" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O67" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P67" t="n">
         <v>1.3</v>
@@ -8652,7 +8652,7 @@
         <v>9.5</v>
       </c>
       <c r="AF67" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG67" t="n">
         <v>8.5</v>
@@ -11261,43 +11261,43 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H89" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I89" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J89" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K89" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L89" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M89" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N89" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O89" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="P89" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q89" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R89" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S89" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T89" t="n">
         <v>12</v>
@@ -11315,40 +11315,40 @@
         <v>21</v>
       </c>
       <c r="Y89" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z89" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA89" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB89" t="n">
         <v>12</v>
       </c>
       <c r="AC89" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD89" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF89" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG89" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH89" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI89" t="n">
         <v>17</v>
       </c>
       <c r="AJ89" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90">
@@ -11392,22 +11392,22 @@
         <v>4.5</v>
       </c>
       <c r="J90" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K90" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L90" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M90" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N90" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O90" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P90" t="n">
         <v>1.4</v>
@@ -11434,7 +11434,7 @@
         <v>13</v>
       </c>
       <c r="X90" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y90" t="n">
         <v>26</v>
@@ -11443,7 +11443,7 @@
         <v>11</v>
       </c>
       <c r="AA90" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB90" t="n">
         <v>17</v>
@@ -11455,7 +11455,7 @@
         <v>251</v>
       </c>
       <c r="AE90" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF90" t="n">
         <v>23</v>
@@ -11467,7 +11467,7 @@
         <v>51</v>
       </c>
       <c r="AI90" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ90" t="n">
         <v>41</v>
@@ -11627,13 +11627,13 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H92" t="n">
         <v>3.7</v>
       </c>
       <c r="I92" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J92" t="n">
         <v>1.03</v>
@@ -11690,7 +11690,7 @@
         <v>7.5</v>
       </c>
       <c r="AB92" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC92" t="n">
         <v>41</v>
@@ -11708,7 +11708,7 @@
         <v>8.5</v>
       </c>
       <c r="AH92" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI92" t="n">
         <v>15</v>
@@ -11758,10 +11758,10 @@
         <v>2.7</v>
       </c>
       <c r="J93" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K93" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L93" t="n">
         <v>1.3</v>
@@ -11770,10 +11770,10 @@
         <v>3.4</v>
       </c>
       <c r="N93" t="n">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="O93" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="P93" t="n">
         <v>1.44</v>
@@ -12118,7 +12118,7 @@
         <v>1.25</v>
       </c>
       <c r="H96" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="I96" t="n">
         <v>11</v>
@@ -12127,67 +12127,67 @@
         <v>1.03</v>
       </c>
       <c r="K96" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L96" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="M96" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N96" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="O96" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="P96" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q96" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="R96" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S96" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T96" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="U96" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V96" t="n">
         <v>9.5</v>
       </c>
       <c r="W96" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X96" t="n">
         <v>11</v>
       </c>
       <c r="Y96" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z96" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA96" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB96" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC96" t="n">
         <v>67</v>
       </c>
       <c r="AD96" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE96" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AF96" t="n">
         <v>51</v>
@@ -12202,7 +12202,7 @@
         <v>67</v>
       </c>
       <c r="AJ96" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97">
@@ -12237,13 +12237,13 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H97" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I97" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J97" t="n">
         <v>1.03</v>
@@ -12276,10 +12276,10 @@
         <v>2.25</v>
       </c>
       <c r="T97" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U97" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V97" t="n">
         <v>8.5</v>
@@ -12318,10 +12318,10 @@
         <v>15</v>
       </c>
       <c r="AH97" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI97" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ97" t="n">
         <v>34</v>
@@ -12481,13 +12481,13 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H99" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I99" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I99" t="n">
-        <v>3.5</v>
       </c>
       <c r="J99" t="n">
         <v>1.03</v>
@@ -12496,10 +12496,10 @@
         <v>15</v>
       </c>
       <c r="L99" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M99" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N99" t="n">
         <v>1.65</v>
@@ -12508,25 +12508,25 @@
         <v>2.2</v>
       </c>
       <c r="P99" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q99" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R99" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S99" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T99" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U99" t="n">
         <v>11</v>
       </c>
       <c r="V99" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W99" t="n">
         <v>17</v>
@@ -12538,10 +12538,10 @@
         <v>21</v>
       </c>
       <c r="Z99" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA99" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB99" t="n">
         <v>13</v>
@@ -12550,16 +12550,16 @@
         <v>41</v>
       </c>
       <c r="AD99" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE99" t="n">
         <v>13</v>
       </c>
       <c r="AF99" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG99" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH99" t="n">
         <v>41</v>
@@ -12725,13 +12725,13 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H101" t="n">
         <v>3.4</v>
       </c>
       <c r="I101" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="J101" t="n">
         <v>1.05</v>
@@ -12764,25 +12764,25 @@
         <v>2.1</v>
       </c>
       <c r="T101" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U101" t="n">
+        <v>11</v>
+      </c>
+      <c r="V101" t="n">
         <v>9</v>
       </c>
-      <c r="U101" t="n">
-        <v>12</v>
-      </c>
-      <c r="V101" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W101" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X101" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y101" t="n">
         <v>26</v>
       </c>
       <c r="Z101" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA101" t="n">
         <v>6.5</v>
@@ -12800,16 +12800,16 @@
         <v>11</v>
       </c>
       <c r="AF101" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG101" t="n">
         <v>11</v>
       </c>
       <c r="AH101" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI101" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ101" t="n">
         <v>29</v>
@@ -12969,31 +12969,31 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H103" t="n">
         <v>3.4</v>
       </c>
       <c r="I103" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J103" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K103" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L103" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M103" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N103" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O103" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P103" t="n">
         <v>1.4</v>
@@ -13008,7 +13008,7 @@
         <v>1.83</v>
       </c>
       <c r="T103" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U103" t="n">
         <v>8</v>
@@ -13023,10 +13023,10 @@
         <v>15</v>
       </c>
       <c r="Y103" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z103" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA103" t="n">
         <v>7</v>
@@ -13041,13 +13041,13 @@
         <v>301</v>
       </c>
       <c r="AE103" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF103" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG103" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH103" t="n">
         <v>51</v>
@@ -13222,10 +13222,10 @@
         <v>3.9</v>
       </c>
       <c r="J105" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K105" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L105" t="n">
         <v>1.36</v>
@@ -13457,13 +13457,13 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H107" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I107" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J107" t="n">
         <v>1.03</v>
@@ -13490,10 +13490,10 @@
         <v>3.25</v>
       </c>
       <c r="R107" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S107" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T107" t="n">
         <v>8.5</v>
@@ -13505,7 +13505,7 @@
         <v>8.5</v>
       </c>
       <c r="W107" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X107" t="n">
         <v>13</v>
@@ -13514,7 +13514,7 @@
         <v>21</v>
       </c>
       <c r="Z107" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA107" t="n">
         <v>7.5</v>
@@ -13532,7 +13532,7 @@
         <v>15</v>
       </c>
       <c r="AF107" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG107" t="n">
         <v>15</v>
@@ -13701,31 +13701,31 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H109" t="n">
         <v>4.5</v>
       </c>
       <c r="I109" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J109" t="n">
         <v>1.03</v>
       </c>
       <c r="K109" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L109" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M109" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N109" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O109" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P109" t="n">
         <v>1.29</v>
@@ -13761,13 +13761,13 @@
         <v>15</v>
       </c>
       <c r="AA109" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB109" t="n">
         <v>17</v>
       </c>
       <c r="AC109" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD109" t="n">
         <v>201</v>
@@ -13779,7 +13779,7 @@
         <v>34</v>
       </c>
       <c r="AG109" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH109" t="n">
         <v>67</v>
@@ -13945,13 +13945,13 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="H111" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I111" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="J111" t="n">
         <v>1.05</v>
@@ -13966,10 +13966,10 @@
         <v>3.75</v>
       </c>
       <c r="N111" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O111" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P111" t="n">
         <v>1.36</v>
@@ -13978,25 +13978,25 @@
         <v>3</v>
       </c>
       <c r="R111" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S111" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T111" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U111" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="V111" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W111" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X111" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y111" t="n">
         <v>34</v>
@@ -14005,7 +14005,7 @@
         <v>11</v>
       </c>
       <c r="AA111" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB111" t="n">
         <v>13</v>
@@ -14017,22 +14017,22 @@
         <v>201</v>
       </c>
       <c r="AE111" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG111" t="n">
         <v>8.5</v>
       </c>
-      <c r="AF111" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG111" t="n">
-        <v>9</v>
-      </c>
       <c r="AH111" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI111" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ111" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112">
@@ -14067,19 +14067,19 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H112" t="n">
         <v>3.2</v>
       </c>
       <c r="I112" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J112" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K112" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L112" t="n">
         <v>1.29</v>
@@ -14201,7 +14201,7 @@
         <v>1.06</v>
       </c>
       <c r="K113" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L113" t="n">
         <v>1.33</v>
@@ -14323,19 +14323,19 @@
         <v>1.08</v>
       </c>
       <c r="K114" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L114" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M114" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N114" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="O114" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P114" t="n">
         <v>1.5</v>
@@ -14377,7 +14377,7 @@
         <v>21</v>
       </c>
       <c r="AC114" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD114" t="inlineStr"/>
       <c r="AE114" t="n">
@@ -14431,19 +14431,19 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="H115" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J115" t="n">
         <v>1.07</v>
       </c>
       <c r="K115" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L115" t="n">
         <v>1.36</v>
@@ -14464,16 +14464,16 @@
         <v>2.63</v>
       </c>
       <c r="R115" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S115" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T115" t="n">
         <v>10</v>
       </c>
       <c r="U115" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V115" t="n">
         <v>13</v>
@@ -14482,13 +14482,13 @@
         <v>41</v>
       </c>
       <c r="X115" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y115" t="n">
         <v>41</v>
       </c>
       <c r="Z115" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA115" t="n">
         <v>6</v>
@@ -14500,22 +14500,22 @@
         <v>51</v>
       </c>
       <c r="AD115" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE115" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF115" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG115" t="n">
         <v>9</v>
       </c>
       <c r="AH115" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI115" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ115" t="n">
         <v>29</v>
@@ -14568,16 +14568,16 @@
         <v>15</v>
       </c>
       <c r="L116" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="M116" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="N116" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="O116" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P116" t="n">
         <v>1.17</v>
@@ -14797,13 +14797,13 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="H118" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I118" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="J118" t="n">
         <v>1.03</v>
@@ -14812,79 +14812,79 @@
         <v>9</v>
       </c>
       <c r="L118" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M118" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="N118" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O118" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="P118" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="Q118" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="R118" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S118" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T118" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="U118" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="V118" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="W118" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="X118" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Y118" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z118" t="n">
         <v>9</v>
       </c>
       <c r="AA118" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AB118" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC118" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD118" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE118" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF118" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG118" t="n">
         <v>8</v>
       </c>
       <c r="AH118" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AI118" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ118" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119">
@@ -14991,7 +14991,7 @@
         <v>600</v>
       </c>
       <c r="AE119" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AF119" t="n">
         <v>8.75</v>
@@ -15047,13 +15047,13 @@
         <v>3.3</v>
       </c>
       <c r="I120" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J120" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K120" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L120" t="n">
         <v>1.5</v>
@@ -15068,16 +15068,16 @@
         <v>1.5</v>
       </c>
       <c r="P120" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R120" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S120" t="n">
         <v>1.57</v>
-      </c>
-      <c r="Q120" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R120" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S120" t="n">
-        <v>1.53</v>
       </c>
       <c r="T120" t="n">
         <v>5</v>
@@ -15101,7 +15101,7 @@
         <v>6.5</v>
       </c>
       <c r="AA120" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB120" t="n">
         <v>21</v>
@@ -15113,10 +15113,10 @@
         <v>101</v>
       </c>
       <c r="AE120" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF120" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG120" t="n">
         <v>19</v>
@@ -15163,31 +15163,31 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H121" t="n">
         <v>3.3</v>
       </c>
       <c r="I121" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J121" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K121" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L121" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M121" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N121" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O121" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="P121" t="n">
         <v>1.44</v>
@@ -15196,16 +15196,16 @@
         <v>2.63</v>
       </c>
       <c r="R121" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S121" t="n">
         <v>1.95</v>
       </c>
-      <c r="S121" t="n">
-        <v>1.8</v>
-      </c>
       <c r="T121" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="U121" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V121" t="n">
         <v>9</v>
@@ -15214,13 +15214,13 @@
         <v>19</v>
       </c>
       <c r="X121" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y121" t="n">
         <v>29</v>
       </c>
       <c r="Z121" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA121" t="n">
         <v>6.5</v>
@@ -15232,25 +15232,25 @@
         <v>51</v>
       </c>
       <c r="AD121" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AE121" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF121" t="n">
         <v>17</v>
       </c>
       <c r="AG121" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH121" t="n">
         <v>41</v>
       </c>
       <c r="AI121" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ121" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ121" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="122">
@@ -15300,16 +15300,16 @@
         <v>23</v>
       </c>
       <c r="L122" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="M122" t="n">
         <v>6.5</v>
       </c>
       <c r="N122" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="O122" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="P122" t="n">
         <v>1.22</v>
@@ -15366,7 +15366,7 @@
         <v>21</v>
       </c>
       <c r="AH122" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI122" t="n">
         <v>41</v>
@@ -15407,31 +15407,31 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H123" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I123" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J123" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K123" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L123" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M123" t="n">
         <v>3.75</v>
       </c>
       <c r="N123" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="O123" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="P123" t="n">
         <v>1.36</v>
@@ -15446,10 +15446,10 @@
         <v>2.1</v>
       </c>
       <c r="T123" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U123" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V123" t="n">
         <v>9.5</v>
@@ -15529,28 +15529,28 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H124" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I124" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J124" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K124" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L124" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M124" t="n">
         <v>5</v>
       </c>
       <c r="N124" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="O124" t="n">
         <v>2.35</v>
@@ -15571,16 +15571,16 @@
         <v>10</v>
       </c>
       <c r="U124" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V124" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W124" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X124" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y124" t="n">
         <v>21</v>
@@ -15604,19 +15604,19 @@
         <v>15</v>
       </c>
       <c r="AF124" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG124" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH124" t="n">
         <v>41</v>
       </c>
       <c r="AI124" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ124" t="n">
         <v>26</v>
-      </c>
-      <c r="AJ124" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="125">
@@ -15651,28 +15651,28 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H125" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I125" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J125" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K125" t="n">
         <v>15</v>
       </c>
       <c r="L125" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="M125" t="n">
         <v>4.5</v>
       </c>
       <c r="N125" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="O125" t="n">
         <v>2.25</v>
@@ -15690,10 +15690,10 @@
         <v>2.2</v>
       </c>
       <c r="T125" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U125" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V125" t="n">
         <v>8.5</v>
@@ -15729,16 +15729,16 @@
         <v>23</v>
       </c>
       <c r="AG125" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH125" t="n">
         <v>41</v>
       </c>
       <c r="AI125" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ125" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126">
@@ -15776,76 +15776,76 @@
         <v>1.8</v>
       </c>
       <c r="H126" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I126" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J126" t="n">
         <v>1.02</v>
       </c>
       <c r="K126" t="n">
+        <v>19</v>
+      </c>
+      <c r="L126" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M126" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N126" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="O126" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P126" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R126" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S126" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T126" t="n">
+        <v>11</v>
+      </c>
+      <c r="U126" t="n">
+        <v>11</v>
+      </c>
+      <c r="V126" t="n">
+        <v>9</v>
+      </c>
+      <c r="W126" t="n">
         <v>17</v>
-      </c>
-      <c r="L126" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="M126" t="n">
-        <v>5</v>
-      </c>
-      <c r="N126" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="O126" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="P126" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q126" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R126" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S126" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T126" t="n">
-        <v>10</v>
-      </c>
-      <c r="U126" t="n">
-        <v>10</v>
-      </c>
-      <c r="V126" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W126" t="n">
-        <v>15</v>
       </c>
       <c r="X126" t="n">
         <v>13</v>
       </c>
       <c r="Y126" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z126" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA126" t="n">
         <v>8</v>
       </c>
       <c r="AB126" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC126" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD126" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE126" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF126" t="n">
         <v>23</v>
@@ -15857,10 +15857,10 @@
         <v>41</v>
       </c>
       <c r="AI126" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ126" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127">
@@ -15904,22 +15904,22 @@
         <v>4.9</v>
       </c>
       <c r="J127" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K127" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="L127" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="M127" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="N127" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O127" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="P127" t="n">
         <v>1.35</v>
@@ -15928,16 +15928,16 @@
         <v>2.95</v>
       </c>
       <c r="R127" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S127" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="T127" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="U127" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="V127" t="n">
         <v>8</v>
@@ -15949,34 +15949,34 @@
         <v>12.5</v>
       </c>
       <c r="Y127" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z127" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA127" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AB127" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC127" t="n">
         <v>65</v>
       </c>
       <c r="AD127" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE127" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF127" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG127" t="n">
         <v>15.5</v>
       </c>
       <c r="AH127" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI127" t="n">
         <v>45</v>
@@ -16038,10 +16038,10 @@
         <v>3.25</v>
       </c>
       <c r="N128" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O128" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P128" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-21.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
@@ -704,7 +704,7 @@
         <v>26</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
         <v>7.5</v>
@@ -722,7 +722,7 @@
         <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J7" t="n">
         <v>1.05</v>
@@ -1278,10 +1278,10 @@
         <v>4</v>
       </c>
       <c r="N7" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="O7" t="n">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="P7" t="n">
         <v>1.36</v>
@@ -1290,13 +1290,13 @@
         <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U7" t="n">
         <v>13</v>
@@ -1305,7 +1305,7 @@
         <v>10</v>
       </c>
       <c r="W7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X7" t="n">
         <v>19</v>
@@ -1314,7 +1314,7 @@
         <v>26</v>
       </c>
       <c r="Z7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA7" t="n">
         <v>6.5</v>
@@ -1338,13 +1338,13 @@
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI7" t="n">
         <v>21</v>
       </c>
       <c r="AJ7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H8" t="n">
         <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J8" t="n">
         <v>1.06</v>
@@ -1394,16 +1394,16 @@
         <v>10</v>
       </c>
       <c r="L8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N8" t="n">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="O8" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="P8" t="n">
         <v>1.4</v>
@@ -1501,19 +1501,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.38</v>
+        <v>2.7</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="J9" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L9" t="n">
         <v>1.53</v>
@@ -1528,10 +1528,10 @@
         <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
         <v>2.2</v>
@@ -1540,25 +1540,25 @@
         <v>1.62</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W9" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="X9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y9" t="n">
         <v>41</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA9" t="n">
         <v>6</v>
@@ -1576,16 +1576,16 @@
         <v>7</v>
       </c>
       <c r="AF9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG9" t="n">
         <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ9" t="n">
         <v>41</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
         <v>1.1</v>
@@ -1695,7 +1695,7 @@
         <v>351</v>
       </c>
       <c r="AE10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF10" t="n">
         <v>21</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="I12" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J12" t="n">
         <v>1.11</v>
@@ -1888,49 +1888,49 @@
         <v>2.5</v>
       </c>
       <c r="N12" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="R12" t="n">
         <v>2.02</v>
       </c>
       <c r="S12" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="U12" t="n">
         <v>9.25</v>
       </c>
       <c r="V12" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X12" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="Y12" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z12" t="n">
         <v>5.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC12" t="n">
         <v>100</v>
@@ -1939,22 +1939,22 @@
         <v>800</v>
       </c>
       <c r="AE12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH12" t="n">
         <v>55</v>
       </c>
       <c r="AI12" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ12" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -2355,19 +2355,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I16" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J16" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
         <v>1.57</v>
@@ -2376,10 +2376,10 @@
         <v>2.25</v>
       </c>
       <c r="N16" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O16" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
         <v>1.62</v>
@@ -2394,16 +2394,16 @@
         <v>1.57</v>
       </c>
       <c r="T16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X16" t="n">
         <v>29</v>
@@ -2504,10 +2504,10 @@
         <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R17" t="n">
         <v>2.63</v>
@@ -2599,13 +2599,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="H18" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J18" t="n">
         <v>1.11</v>
@@ -2614,13 +2614,13 @@
         <v>5.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M18" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="N18" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="O18" t="n">
         <v>1.42</v>
@@ -2638,16 +2638,16 @@
         <v>1.5</v>
       </c>
       <c r="T18" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="U18" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="V18" t="n">
         <v>9</v>
       </c>
       <c r="W18" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="X18" t="n">
         <v>18.5</v>
@@ -2656,10 +2656,10 @@
         <v>45</v>
       </c>
       <c r="Z18" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AA18" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB18" t="n">
         <v>23</v>
@@ -2671,10 +2671,10 @@
         <v>101</v>
       </c>
       <c r="AE18" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG18" t="n">
         <v>18</v>
@@ -2683,7 +2683,7 @@
         <v>110</v>
       </c>
       <c r="AI18" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ18" t="n">
         <v>90</v>
@@ -2730,10 +2730,10 @@
         <v>4.1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L19" t="n">
         <v>1.44</v>
@@ -12481,13 +12481,13 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H99" t="n">
         <v>3.1</v>
       </c>
       <c r="I99" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J99" t="n">
         <v>1.1</v>
@@ -12496,10 +12496,10 @@
         <v>7</v>
       </c>
       <c r="L99" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M99" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N99" t="n">
         <v>2.5</v>
@@ -12523,7 +12523,7 @@
         <v>6</v>
       </c>
       <c r="U99" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V99" t="n">
         <v>10</v>
@@ -12532,7 +12532,7 @@
         <v>21</v>
       </c>
       <c r="X99" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y99" t="n">
         <v>41</v>
@@ -12553,7 +12553,7 @@
         <v>101</v>
       </c>
       <c r="AE99" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF99" t="n">
         <v>15</v>
@@ -12562,7 +12562,7 @@
         <v>13</v>
       </c>
       <c r="AH99" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI99" t="n">
         <v>34</v>
@@ -12612,10 +12612,10 @@
         <v>3.9</v>
       </c>
       <c r="J100" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K100" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L100" t="n">
         <v>1.36</v>
